--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B6D0799-0157-4927-B824-642E20153724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79B834F2-B4AB-4A97-91F7-8A64AEDDDBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,7 +776,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C675B50-087A-5E71-FB9C-EC58BAE8DABE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BD41B1-5B72-D995-AF4F-BF60CA9E8458}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79B834F2-B4AB-4A97-91F7-8A64AEDDDBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0A8A869-3CFE-46F6-AEF2-343AF8212914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,7 +776,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BD41B1-5B72-D995-AF4F-BF60CA9E8458}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFAAF0A-4884-C4AC-9792-FC9033D9F280}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0A8A869-3CFE-46F6-AEF2-343AF8212914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6394553C-B93D-4A9E-9535-BC1F1E49E64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,7 +776,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFAAF0A-4884-C4AC-9792-FC9033D9F280}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE8DFB5-64E2-3E7C-5B5A-B9F2AB5814B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6394553C-B93D-4A9E-9535-BC1F1E49E64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{920C9ACC-3484-4BDC-A431-55BDFBCFEE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,7 +776,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE8DFB5-64E2-3E7C-5B5A-B9F2AB5814B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A827D6A6-DFB6-86A3-8C75-4F5DDEF46EA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{920C9ACC-3484-4BDC-A431-55BDFBCFEE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{874EEE3F-313B-4385-99B5-D7FF7B0EE2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,7 +776,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A827D6A6-DFB6-86A3-8C75-4F5DDEF46EA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4034E7A1-BDB9-700F-95B3-5BED6A87E9E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{697236AD-0D5C-4C10-B1A3-3DCA8C7E4F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B32E16E2-2886-43B9-BA2D-08A51134EB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1889,7 +1889,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A61F282-B0E6-31AC-FF16-A4DA7ED61CF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94FE466-1025-8C56-CE0A-F39BC9A1E202}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DD67752-6C9E-4473-B86B-F5DDFFBDEDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{883E15D5-5E95-46BF-8BCB-B9E04446ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1902,7 +1902,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9751C492-8175-5303-7CEF-3EFFC846F72D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80F54B3-A4BA-ECB1-EA90-D6A81D910C8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{883E15D5-5E95-46BF-8BCB-B9E04446ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A41C23-F203-4DBD-B2CB-364AC04EC32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1902,7 +1902,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80F54B3-A4BA-ECB1-EA90-D6A81D910C8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F1CC5F-F9B3-9695-BB1C-CF46DCA48E83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A41C23-F203-4DBD-B2CB-364AC04EC32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63AE42D9-6AB8-4C40-A3B7-AACFDC089B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1902,7 +1902,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F1CC5F-F9B3-9695-BB1C-CF46DCA48E83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC2C1EC-AA57-E448-7D8C-2F54167BA487}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63AE42D9-6AB8-4C40-A3B7-AACFDC089B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D15C6E6-64C8-4DFD-B9A6-39A1AEC3878A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -997,7 +997,7 @@
     <t>at grid node - IT102-380</t>
   </si>
   <si>
-    <t>e_demand,ev_battery</t>
+    <t>e_demand,ev_battery,H2prd_Elc_PEM,H2prd_Elc_ALK</t>
   </si>
   <si>
     <t>IT119-380</t>
@@ -1902,7 +1902,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC2C1EC-AA57-E448-7D8C-2F54167BA487}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB40B29E-52EA-B536-0A9C-FC9B2FA57A66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2221,7 @@
     <col min="17" max="17" width="10.59765625" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.46484375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D15C6E6-64C8-4DFD-B9A6-39A1AEC3878A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF2190C8-F6B3-42D7-A977-A3C0176EE989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="568">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -1054,12 +1054,6 @@
     <t>at grid node - IT43-380</t>
   </si>
   <si>
-    <t>IT55-380</t>
-  </si>
-  <si>
-    <t>at grid node - IT55-380</t>
-  </si>
-  <si>
     <t>IT58-220</t>
   </si>
   <si>
@@ -1156,6 +1150,12 @@
     <t>at grid node - w103386958-380</t>
   </si>
   <si>
+    <t>w103653565-220</t>
+  </si>
+  <si>
+    <t>at grid node - w103653565-220</t>
+  </si>
+  <si>
     <t>w105757794-220</t>
   </si>
   <si>
@@ -1180,12 +1180,6 @@
     <t>at grid node - w109997676-380</t>
   </si>
   <si>
-    <t>w110138220-220</t>
-  </si>
-  <si>
-    <t>at grid node - w110138220-220</t>
-  </si>
-  <si>
     <t>w110310021-380</t>
   </si>
   <si>
@@ -1264,6 +1258,12 @@
     <t>at grid node - w132702940-220</t>
   </si>
   <si>
+    <t>w132726160-220</t>
+  </si>
+  <si>
+    <t>at grid node - w132726160-220</t>
+  </si>
+  <si>
     <t>w136457747-220</t>
   </si>
   <si>
@@ -1366,12 +1366,6 @@
     <t>at grid node - w172705586-220</t>
   </si>
   <si>
-    <t>w189612607-380</t>
-  </si>
-  <si>
-    <t>at grid node - w189612607-380</t>
-  </si>
-  <si>
     <t>w202178573-220</t>
   </si>
   <si>
@@ -1516,6 +1510,12 @@
     <t>at grid node - w42206116-380</t>
   </si>
   <si>
+    <t>w435433908-220</t>
+  </si>
+  <si>
+    <t>at grid node - w435433908-220</t>
+  </si>
+  <si>
     <t>w436352445-220</t>
   </si>
   <si>
@@ -1580,6 +1580,12 @@
   </si>
   <si>
     <t>at grid node - w59604857-220</t>
+  </si>
+  <si>
+    <t>w59629638-220</t>
+  </si>
+  <si>
+    <t>at grid node - w59629638-220</t>
   </si>
   <si>
     <t>w60913666-380</t>
@@ -1902,7 +1908,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB40B29E-52EA-B536-0A9C-FC9B2FA57A66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387BC0A3-6468-E023-F154-65E048F7BECD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,10 +3518,10 @@
         <v>74</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>362</v>
+        <v>120</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>363</v>
+        <v>121</v>
       </c>
       <c r="T34" s="8" t="s">
         <v>319</v>
@@ -3562,10 +3568,10 @@
         <v>74</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>120</v>
+        <v>362</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>121</v>
+        <v>363</v>
       </c>
       <c r="T35" s="7" t="s">
         <v>319</v>
@@ -4012,10 +4018,10 @@
         <v>74</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="S44" s="8" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="T44" s="8" t="s">
         <v>319</v>
@@ -4062,10 +4068,10 @@
         <v>74</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="T45" s="7" t="s">
         <v>319</v>
@@ -4112,10 +4118,10 @@
         <v>74</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>156</v>
+        <v>378</v>
       </c>
       <c r="S46" s="8" t="s">
-        <v>157</v>
+        <v>379</v>
       </c>
       <c r="T46" s="8" t="s">
         <v>319</v>
@@ -4162,10 +4168,10 @@
         <v>74</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="T47" s="7" t="s">
         <v>319</v>
@@ -4212,10 +4218,10 @@
         <v>74</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S48" s="8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="T48" s="8" t="s">
         <v>319</v>
@@ -4250,10 +4256,10 @@
         <v>74</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T49" s="7" t="s">
         <v>319</v>
@@ -4288,10 +4294,10 @@
         <v>74</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>384</v>
+        <v>309</v>
       </c>
       <c r="S50" s="8" t="s">
-        <v>385</v>
+        <v>310</v>
       </c>
       <c r="T50" s="8" t="s">
         <v>319</v>
@@ -4326,10 +4332,10 @@
         <v>74</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>387</v>
+        <v>101</v>
       </c>
       <c r="T51" s="7" t="s">
         <v>319</v>
@@ -4364,10 +4370,10 @@
         <v>74</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="S52" s="8" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="T52" s="8" t="s">
         <v>319</v>
@@ -4402,10 +4408,10 @@
         <v>74</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="S53" s="7" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="T53" s="7" t="s">
         <v>319</v>
@@ -4478,10 +4484,10 @@
         <v>74</v>
       </c>
       <c r="R55" s="7" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
       <c r="S55" s="7" t="s">
-        <v>141</v>
+        <v>391</v>
       </c>
       <c r="T55" s="7" t="s">
         <v>319</v>
@@ -4516,10 +4522,10 @@
         <v>74</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="S56" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="T56" s="8" t="s">
         <v>319</v>
@@ -4554,10 +4560,10 @@
         <v>74</v>
       </c>
       <c r="R57" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="S57" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="T57" s="7" t="s">
         <v>319</v>
@@ -4592,10 +4598,10 @@
         <v>74</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="S58" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="T58" s="8" t="s">
         <v>319</v>
@@ -4630,10 +4636,10 @@
         <v>74</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="T59" s="7" t="s">
         <v>319</v>
@@ -4668,10 +4674,10 @@
         <v>74</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S60" s="8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="T60" s="8" t="s">
         <v>319</v>
@@ -4706,10 +4712,10 @@
         <v>74</v>
       </c>
       <c r="R61" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="T61" s="7" t="s">
         <v>319</v>
@@ -4744,10 +4750,10 @@
         <v>74</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="S62" s="8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="T62" s="8" t="s">
         <v>319</v>
@@ -4782,10 +4788,10 @@
         <v>74</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="T63" s="7" t="s">
         <v>319</v>
@@ -4820,10 +4826,10 @@
         <v>74</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="S64" s="8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="T64" s="8" t="s">
         <v>319</v>
@@ -4858,10 +4864,10 @@
         <v>74</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>408</v>
+        <v>297</v>
       </c>
       <c r="S65" s="7" t="s">
-        <v>409</v>
+        <v>298</v>
       </c>
       <c r="T65" s="7" t="s">
         <v>319</v>
@@ -4896,10 +4902,10 @@
         <v>74</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="S66" s="8" t="s">
-        <v>298</v>
+        <v>411</v>
       </c>
       <c r="T66" s="8" t="s">
         <v>319</v>
@@ -4934,10 +4940,10 @@
         <v>74</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="S67" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="T67" s="7" t="s">
         <v>319</v>
@@ -4972,10 +4978,10 @@
         <v>74</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="S68" s="8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="T68" s="8" t="s">
         <v>319</v>
@@ -5010,10 +5016,10 @@
         <v>74</v>
       </c>
       <c r="R69" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="S69" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="T69" s="7" t="s">
         <v>319</v>
@@ -5048,10 +5054,10 @@
         <v>74</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="T70" s="8" t="s">
         <v>319</v>
@@ -5086,10 +5092,10 @@
         <v>74</v>
       </c>
       <c r="R71" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="S71" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="T71" s="7" t="s">
         <v>319</v>
@@ -5124,10 +5130,10 @@
         <v>74</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="S72" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="T72" s="8" t="s">
         <v>319</v>
@@ -5162,10 +5168,10 @@
         <v>74</v>
       </c>
       <c r="R73" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="S73" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="T73" s="7" t="s">
         <v>319</v>
@@ -5200,10 +5206,10 @@
         <v>74</v>
       </c>
       <c r="R74" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="S74" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="T74" s="8" t="s">
         <v>319</v>
@@ -5238,10 +5244,10 @@
         <v>74</v>
       </c>
       <c r="R75" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="S75" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="T75" s="7" t="s">
         <v>319</v>
@@ -5276,10 +5282,10 @@
         <v>74</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="S76" s="8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="T76" s="8" t="s">
         <v>319</v>
@@ -5314,10 +5320,10 @@
         <v>74</v>
       </c>
       <c r="R77" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="S77" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="T77" s="7" t="s">
         <v>319</v>
@@ -5352,10 +5358,10 @@
         <v>74</v>
       </c>
       <c r="R78" s="8" t="s">
-        <v>432</v>
+        <v>154</v>
       </c>
       <c r="S78" s="8" t="s">
-        <v>433</v>
+        <v>155</v>
       </c>
       <c r="T78" s="8" t="s">
         <v>319</v>
@@ -5390,10 +5396,10 @@
         <v>74</v>
       </c>
       <c r="R79" s="7" t="s">
-        <v>154</v>
+        <v>434</v>
       </c>
       <c r="S79" s="7" t="s">
-        <v>155</v>
+        <v>435</v>
       </c>
       <c r="T79" s="7" t="s">
         <v>319</v>
@@ -5428,10 +5434,10 @@
         <v>74</v>
       </c>
       <c r="R80" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="S80" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="T80" s="8" t="s">
         <v>319</v>
@@ -5454,10 +5460,10 @@
         <v>74</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="S81" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="T81" s="7" t="s">
         <v>319</v>
@@ -5480,10 +5486,10 @@
         <v>74</v>
       </c>
       <c r="R82" s="8" t="s">
-        <v>438</v>
+        <v>217</v>
       </c>
       <c r="S82" s="8" t="s">
-        <v>439</v>
+        <v>218</v>
       </c>
       <c r="T82" s="8" t="s">
         <v>319</v>
@@ -5506,10 +5512,10 @@
         <v>74</v>
       </c>
       <c r="R83" s="7" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="S83" s="7" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="T83" s="7" t="s">
         <v>319</v>
@@ -5532,10 +5538,10 @@
         <v>74</v>
       </c>
       <c r="R84" s="8" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="S84" s="8" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="T84" s="8" t="s">
         <v>319</v>
@@ -5558,10 +5564,10 @@
         <v>74</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="S85" s="7" t="s">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="T85" s="7" t="s">
         <v>319</v>
@@ -5584,10 +5590,10 @@
         <v>74</v>
       </c>
       <c r="R86" s="8" t="s">
-        <v>440</v>
+        <v>162</v>
       </c>
       <c r="S86" s="8" t="s">
-        <v>441</v>
+        <v>163</v>
       </c>
       <c r="T86" s="8" t="s">
         <v>319</v>
@@ -5610,10 +5616,10 @@
         <v>74</v>
       </c>
       <c r="R87" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="S87" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="T87" s="7" t="s">
         <v>319</v>
@@ -5636,10 +5642,10 @@
         <v>74</v>
       </c>
       <c r="R88" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="S88" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T88" s="8" t="s">
         <v>319</v>
@@ -5688,10 +5694,10 @@
         <v>74</v>
       </c>
       <c r="R90" s="8" t="s">
-        <v>178</v>
+        <v>444</v>
       </c>
       <c r="S90" s="8" t="s">
-        <v>179</v>
+        <v>445</v>
       </c>
       <c r="T90" s="8" t="s">
         <v>319</v>
@@ -5714,10 +5720,10 @@
         <v>74</v>
       </c>
       <c r="R91" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="S91" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="T91" s="7" t="s">
         <v>319</v>
@@ -5740,10 +5746,10 @@
         <v>74</v>
       </c>
       <c r="R92" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="S92" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="T92" s="8" t="s">
         <v>319</v>
@@ -5766,10 +5772,10 @@
         <v>74</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="T93" s="7" t="s">
         <v>319</v>
@@ -5792,10 +5798,10 @@
         <v>74</v>
       </c>
       <c r="R94" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="S94" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="T94" s="8" t="s">
         <v>319</v>
@@ -5818,10 +5824,10 @@
         <v>74</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="S95" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="T95" s="7" t="s">
         <v>319</v>
@@ -5844,10 +5850,10 @@
         <v>74</v>
       </c>
       <c r="R96" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="S96" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="T96" s="8" t="s">
         <v>319</v>
@@ -5870,10 +5876,10 @@
         <v>74</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="S97" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="T97" s="7" t="s">
         <v>319</v>
@@ -5896,10 +5902,10 @@
         <v>74</v>
       </c>
       <c r="R98" s="8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="S98" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="T98" s="8" t="s">
         <v>319</v>
@@ -5922,10 +5928,10 @@
         <v>74</v>
       </c>
       <c r="R99" s="7" t="s">
-        <v>460</v>
+        <v>92</v>
       </c>
       <c r="S99" s="7" t="s">
-        <v>461</v>
+        <v>93</v>
       </c>
       <c r="T99" s="7" t="s">
         <v>319</v>
@@ -5974,10 +5980,10 @@
         <v>74</v>
       </c>
       <c r="R101" s="7" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
       <c r="S101" s="7" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
       <c r="T101" s="7" t="s">
         <v>319</v>
@@ -6026,10 +6032,10 @@
         <v>74</v>
       </c>
       <c r="R103" s="7" t="s">
-        <v>301</v>
+        <v>106</v>
       </c>
       <c r="S103" s="7" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="T103" s="7" t="s">
         <v>319</v>
@@ -6078,10 +6084,10 @@
         <v>74</v>
       </c>
       <c r="R105" s="7" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="S105" s="7" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="T105" s="7" t="s">
         <v>319</v>
@@ -6130,10 +6136,10 @@
         <v>74</v>
       </c>
       <c r="R107" s="7" t="s">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="S107" s="7" t="s">
-        <v>201</v>
+        <v>471</v>
       </c>
       <c r="T107" s="7" t="s">
         <v>319</v>
@@ -6156,10 +6162,10 @@
         <v>74</v>
       </c>
       <c r="R108" s="8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="S108" s="8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="T108" s="8" t="s">
         <v>319</v>
@@ -6182,10 +6188,10 @@
         <v>74</v>
       </c>
       <c r="R109" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="S109" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="T109" s="7" t="s">
         <v>319</v>
@@ -6208,10 +6214,10 @@
         <v>74</v>
       </c>
       <c r="R110" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S110" s="8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="T110" s="8" t="s">
         <v>319</v>
@@ -6234,10 +6240,10 @@
         <v>74</v>
       </c>
       <c r="R111" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S111" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="T111" s="7" t="s">
         <v>319</v>
@@ -6260,10 +6266,10 @@
         <v>74</v>
       </c>
       <c r="R112" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="S112" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="T112" s="8" t="s">
         <v>319</v>
@@ -6286,10 +6292,10 @@
         <v>74</v>
       </c>
       <c r="R113" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="S113" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T113" s="7" t="s">
         <v>319</v>
@@ -6312,10 +6318,10 @@
         <v>74</v>
       </c>
       <c r="R114" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="S114" s="8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="T114" s="8" t="s">
         <v>319</v>
@@ -6338,10 +6344,10 @@
         <v>74</v>
       </c>
       <c r="R115" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="S115" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="T115" s="7" t="s">
         <v>319</v>
@@ -6364,10 +6370,10 @@
         <v>74</v>
       </c>
       <c r="R116" s="8" t="s">
-        <v>486</v>
+        <v>166</v>
       </c>
       <c r="S116" s="8" t="s">
-        <v>487</v>
+        <v>167</v>
       </c>
       <c r="T116" s="8" t="s">
         <v>319</v>
@@ -6390,10 +6396,10 @@
         <v>74</v>
       </c>
       <c r="R117" s="7" t="s">
-        <v>488</v>
+        <v>138</v>
       </c>
       <c r="S117" s="7" t="s">
-        <v>489</v>
+        <v>139</v>
       </c>
       <c r="T117" s="7" t="s">
         <v>319</v>
@@ -6416,10 +6422,10 @@
         <v>74</v>
       </c>
       <c r="R118" s="8" t="s">
-        <v>166</v>
+        <v>488</v>
       </c>
       <c r="S118" s="8" t="s">
-        <v>167</v>
+        <v>489</v>
       </c>
       <c r="T118" s="8" t="s">
         <v>319</v>
@@ -6442,10 +6448,10 @@
         <v>74</v>
       </c>
       <c r="R119" s="7" t="s">
-        <v>138</v>
+        <v>490</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>139</v>
+        <v>491</v>
       </c>
       <c r="T119" s="7" t="s">
         <v>319</v>
@@ -6468,10 +6474,10 @@
         <v>74</v>
       </c>
       <c r="R120" s="8" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="S120" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="T120" s="8" t="s">
         <v>319</v>
@@ -6494,10 +6500,10 @@
         <v>74</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="S121" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="T121" s="7" t="s">
         <v>319</v>
@@ -6520,10 +6526,10 @@
         <v>74</v>
       </c>
       <c r="R122" s="8" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="S122" s="8" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="T122" s="8" t="s">
         <v>319</v>
@@ -6546,10 +6552,10 @@
         <v>74</v>
       </c>
       <c r="R123" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="S123" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="T123" s="7" t="s">
         <v>319</v>
@@ -6572,10 +6578,10 @@
         <v>74</v>
       </c>
       <c r="R124" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="S124" s="8" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="T124" s="8" t="s">
         <v>319</v>
@@ -6598,10 +6604,10 @@
         <v>74</v>
       </c>
       <c r="R125" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="S125" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="T125" s="7" t="s">
         <v>319</v>
@@ -6624,10 +6630,10 @@
         <v>74</v>
       </c>
       <c r="R126" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="S126" s="8" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="T126" s="8" t="s">
         <v>319</v>
@@ -6650,10 +6656,10 @@
         <v>74</v>
       </c>
       <c r="R127" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="S127" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="T127" s="7" t="s">
         <v>319</v>
@@ -6676,10 +6682,10 @@
         <v>74</v>
       </c>
       <c r="R128" s="8" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="S128" s="8" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="T128" s="8" t="s">
         <v>319</v>
@@ -6702,10 +6708,10 @@
         <v>74</v>
       </c>
       <c r="R129" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="S129" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="T129" s="7" t="s">
         <v>319</v>
@@ -6716,10 +6722,10 @@
         <v>74</v>
       </c>
       <c r="R130" s="8" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="S130" s="8" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="T130" s="8" t="s">
         <v>319</v>
@@ -6730,10 +6736,10 @@
         <v>74</v>
       </c>
       <c r="R131" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="S131" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="T131" s="7" t="s">
         <v>319</v>
@@ -6758,10 +6764,10 @@
         <v>74</v>
       </c>
       <c r="R133" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="S133" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="T133" s="7" t="s">
         <v>319</v>
@@ -6772,10 +6778,10 @@
         <v>74</v>
       </c>
       <c r="R134" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="S134" s="8" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="T134" s="8" t="s">
         <v>319</v>
@@ -6786,10 +6792,10 @@
         <v>74</v>
       </c>
       <c r="R135" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="S135" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="T135" s="7" t="s">
         <v>319</v>
@@ -6800,10 +6806,10 @@
         <v>74</v>
       </c>
       <c r="R136" s="8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="S136" s="8" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="T136" s="8" t="s">
         <v>319</v>
@@ -6814,10 +6820,10 @@
         <v>74</v>
       </c>
       <c r="R137" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="S137" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="T137" s="7" t="s">
         <v>319</v>
@@ -6828,10 +6834,10 @@
         <v>74</v>
       </c>
       <c r="R138" s="8" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="S138" s="8" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="T138" s="8" t="s">
         <v>319</v>
@@ -6842,10 +6848,10 @@
         <v>74</v>
       </c>
       <c r="R139" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="S139" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="T139" s="7" t="s">
         <v>319</v>
@@ -6856,10 +6862,10 @@
         <v>74</v>
       </c>
       <c r="R140" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="S140" s="8" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="T140" s="8" t="s">
         <v>319</v>
@@ -6870,10 +6876,10 @@
         <v>74</v>
       </c>
       <c r="R141" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="S141" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="T141" s="7" t="s">
         <v>319</v>
@@ -6884,10 +6890,10 @@
         <v>74</v>
       </c>
       <c r="R142" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="S142" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="T142" s="8" t="s">
         <v>319</v>
@@ -6898,10 +6904,10 @@
         <v>74</v>
       </c>
       <c r="R143" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="S143" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="T143" s="7" t="s">
         <v>319</v>
@@ -6912,10 +6918,10 @@
         <v>74</v>
       </c>
       <c r="R144" s="8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="S144" s="8" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="T144" s="8" t="s">
         <v>319</v>
@@ -6926,10 +6932,10 @@
         <v>74</v>
       </c>
       <c r="R145" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="S145" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="T145" s="7" t="s">
         <v>319</v>
@@ -6940,10 +6946,10 @@
         <v>74</v>
       </c>
       <c r="R146" s="8" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="S146" s="8" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="T146" s="8" t="s">
         <v>319</v>
@@ -6954,10 +6960,10 @@
         <v>74</v>
       </c>
       <c r="R147" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="S147" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="T147" s="7" t="s">
         <v>319</v>
@@ -6968,10 +6974,10 @@
         <v>74</v>
       </c>
       <c r="R148" s="8" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="S148" s="8" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="T148" s="8" t="s">
         <v>319</v>
@@ -6982,10 +6988,10 @@
         <v>74</v>
       </c>
       <c r="R149" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="S149" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="T149" s="7" t="s">
         <v>319</v>
@@ -7010,10 +7016,10 @@
         <v>74</v>
       </c>
       <c r="R151" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="S151" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="T151" s="7" t="s">
         <v>319</v>
@@ -7024,10 +7030,10 @@
         <v>74</v>
       </c>
       <c r="R152" s="8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="S152" s="8" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="T152" s="8" t="s">
         <v>319</v>
@@ -7038,10 +7044,10 @@
         <v>74</v>
       </c>
       <c r="R153" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="S153" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="T153" s="7" t="s">
         <v>319</v>
@@ -7052,10 +7058,10 @@
         <v>74</v>
       </c>
       <c r="R154" s="8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="S154" s="8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="T154" s="8" t="s">
         <v>319</v>
@@ -7066,10 +7072,10 @@
         <v>74</v>
       </c>
       <c r="R155" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="S155" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="T155" s="7" t="s">
         <v>319</v>
@@ -7080,10 +7086,10 @@
         <v>74</v>
       </c>
       <c r="R156" s="8" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="S156" s="8" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="T156" s="8" t="s">
         <v>319</v>
@@ -7094,10 +7100,10 @@
         <v>74</v>
       </c>
       <c r="R157" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="S157" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="T157" s="7" t="s">
         <v>319</v>
@@ -7108,10 +7114,10 @@
         <v>74</v>
       </c>
       <c r="R158" s="8" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="S158" s="8" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="T158" s="8" t="s">
         <v>319</v>
@@ -7122,10 +7128,10 @@
         <v>74</v>
       </c>
       <c r="R159" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="S159" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="T159" s="7" t="s">
         <v>319</v>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF2190C8-F6B3-42D7-A977-A3C0176EE989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26DED4F9-F9C0-4168-9AA0-99AF29893C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1908,7 +1908,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387BC0A3-6468-E023-F154-65E048F7BECD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F3211A-E732-0A93-29E4-E74FFB933C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26DED4F9-F9C0-4168-9AA0-99AF29893C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9A0896-2E4C-49E8-932C-BF720AE9FA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1908,7 +1908,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F3211A-E732-0A93-29E4-E74FFB933C02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0641078C-E37D-D0A5-AF59-4434C9522FA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9A0896-2E4C-49E8-932C-BF720AE9FA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C098C92F-7AD9-4AA0-816B-F0A44F6D55AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1908,7 +1908,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0641078C-E37D-D0A5-AF59-4434C9522FA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657E4E9C-A198-3E88-BC16-2D1F8FCC1230}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C098C92F-7AD9-4AA0-816B-F0A44F6D55AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F151F8-0876-46C0-BC93-65A7E70DBDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1908,7 +1908,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657E4E9C-A198-3E88-BC16-2D1F8FCC1230}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD891F1C-45E6-712C-C73E-B05173472C7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F151F8-0876-46C0-BC93-65A7E70DBDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7899EE59-D43B-4F41-914B-B5C9A21BED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1908,7 +1908,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD891F1C-45E6-712C-C73E-B05173472C7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B381FB5-C0F0-FADB-AA27-3A13C65F5AD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7899EE59-D43B-4F41-914B-B5C9A21BED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D467480-CFC9-420B-81B2-24A6B218EC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1908,7 +1908,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B381FB5-C0F0-FADB-AA27-3A13C65F5AD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C097C44-542F-7360-B736-114AC15D72BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82897072-3062-4D45-A96B-734B6B89E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDDA90B-11C2-4D55-A300-DC6F12CAEA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="577">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -226,18 +226,12 @@
     <t>ELC_spv*</t>
   </si>
   <si>
-    <t>ELC_won*</t>
-  </si>
-  <si>
     <t>Trd_elec*</t>
   </si>
   <si>
     <t>solar</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -260,6 +254,15 @@
   </si>
   <si>
     <t>coal,gas,nuclear,bioenergy</t>
+  </si>
+  <si>
+    <t>windoff</t>
+  </si>
+  <si>
+    <t>windon</t>
+  </si>
+  <si>
+    <t>ELC_wo*</t>
   </si>
   <si>
     <t>~replicateinregions</t>
@@ -2122,16 +2125,16 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.45">
@@ -2139,10 +2142,10 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -2151,10 +2154,10 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -2163,10 +2166,10 @@
         <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s">
         <v>21</v>
@@ -2175,10 +2178,10 @@
         <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s">
         <v>21</v>
@@ -2186,4860 +2189,4860 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" t="s">
+        <v>223</v>
+      </c>
+      <c r="J11" t="s">
+        <v>224</v>
+      </c>
+      <c r="L11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" t="s">
         <v>79</v>
       </c>
-      <c r="E11" t="s">
+      <c r="N11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s">
-        <v>221</v>
-      </c>
-      <c r="I11" t="s">
-        <v>222</v>
-      </c>
-      <c r="J11" t="s">
-        <v>223</v>
-      </c>
-      <c r="L11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" t="s">
-        <v>79</v>
-      </c>
       <c r="O11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="T11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
         <v>81</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" t="s">
         <v>82</v>
       </c>
-      <c r="E12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>224</v>
-      </c>
-      <c r="I12" t="s">
-        <v>225</v>
-      </c>
-      <c r="J12" t="s">
-        <v>223</v>
-      </c>
-      <c r="L12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" t="s">
-        <v>81</v>
-      </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13" t="s">
+        <v>224</v>
+      </c>
+      <c r="L13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" t="s">
         <v>84</v>
       </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
-        <v>226</v>
-      </c>
-      <c r="I13" t="s">
-        <v>227</v>
-      </c>
-      <c r="J13" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" t="s">
-        <v>83</v>
-      </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" t="s">
+        <v>230</v>
+      </c>
+      <c r="J14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" t="s">
         <v>86</v>
       </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s">
-        <v>228</v>
-      </c>
-      <c r="I14" t="s">
-        <v>229</v>
-      </c>
-      <c r="J14" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" t="s">
-        <v>85</v>
-      </c>
       <c r="N14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>231</v>
+      </c>
+      <c r="I15" t="s">
+        <v>232</v>
+      </c>
+      <c r="J15" t="s">
+        <v>224</v>
+      </c>
+      <c r="L15" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" t="s">
         <v>88</v>
       </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s">
-        <v>230</v>
-      </c>
-      <c r="I15" t="s">
-        <v>231</v>
-      </c>
-      <c r="J15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L15" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" t="s">
-        <v>87</v>
-      </c>
       <c r="N15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>233</v>
+      </c>
+      <c r="I16" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" t="s">
         <v>90</v>
       </c>
-      <c r="E16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s">
-        <v>232</v>
-      </c>
-      <c r="I16" t="s">
-        <v>233</v>
-      </c>
-      <c r="J16" t="s">
-        <v>223</v>
-      </c>
-      <c r="L16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" t="s">
-        <v>89</v>
-      </c>
       <c r="N16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" t="s">
+        <v>224</v>
+      </c>
+      <c r="L17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" t="s">
         <v>92</v>
       </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" t="s">
-        <v>234</v>
-      </c>
-      <c r="I17" t="s">
-        <v>235</v>
-      </c>
-      <c r="J17" t="s">
-        <v>223</v>
-      </c>
-      <c r="L17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" t="s">
-        <v>91</v>
-      </c>
       <c r="N17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>237</v>
+      </c>
+      <c r="I18" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" t="s">
+        <v>224</v>
+      </c>
+      <c r="L18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" t="s">
         <v>94</v>
       </c>
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s">
-        <v>236</v>
-      </c>
-      <c r="I18" t="s">
-        <v>237</v>
-      </c>
-      <c r="J18" t="s">
-        <v>223</v>
-      </c>
-      <c r="L18" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" t="s">
-        <v>93</v>
-      </c>
       <c r="N18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S18" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I19" t="s">
+        <v>240</v>
+      </c>
+      <c r="J19" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" t="s">
         <v>96</v>
       </c>
-      <c r="E19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s">
-        <v>238</v>
-      </c>
-      <c r="I19" t="s">
-        <v>239</v>
-      </c>
-      <c r="J19" t="s">
-        <v>223</v>
-      </c>
-      <c r="L19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19" t="s">
-        <v>95</v>
-      </c>
       <c r="N19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>241</v>
+      </c>
+      <c r="I20" t="s">
+        <v>242</v>
+      </c>
+      <c r="J20" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" t="s">
         <v>98</v>
       </c>
-      <c r="E20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s">
-        <v>240</v>
-      </c>
-      <c r="I20" t="s">
-        <v>241</v>
-      </c>
-      <c r="J20" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" t="s">
-        <v>97</v>
-      </c>
       <c r="N20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" t="s">
+        <v>244</v>
+      </c>
+      <c r="J21" t="s">
+        <v>224</v>
+      </c>
+      <c r="L21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" t="s">
         <v>100</v>
       </c>
-      <c r="E21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s">
-        <v>242</v>
-      </c>
-      <c r="I21" t="s">
-        <v>243</v>
-      </c>
-      <c r="J21" t="s">
-        <v>223</v>
-      </c>
-      <c r="L21" t="s">
-        <v>77</v>
-      </c>
-      <c r="M21" t="s">
-        <v>99</v>
-      </c>
       <c r="N21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>245</v>
+      </c>
+      <c r="I22" t="s">
+        <v>246</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" t="s">
         <v>102</v>
       </c>
-      <c r="E22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" t="s">
-        <v>244</v>
-      </c>
-      <c r="I22" t="s">
-        <v>245</v>
-      </c>
-      <c r="J22" t="s">
-        <v>223</v>
-      </c>
-      <c r="L22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" t="s">
-        <v>101</v>
-      </c>
       <c r="N22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="T22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s">
+        <v>247</v>
+      </c>
+      <c r="I23" t="s">
+        <v>248</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" t="s">
         <v>104</v>
       </c>
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s">
-        <v>246</v>
-      </c>
-      <c r="I23" t="s">
-        <v>247</v>
-      </c>
-      <c r="J23" t="s">
-        <v>223</v>
-      </c>
-      <c r="L23" t="s">
-        <v>77</v>
-      </c>
-      <c r="M23" t="s">
-        <v>103</v>
-      </c>
       <c r="N23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="T23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I24" t="s">
+        <v>250</v>
+      </c>
+      <c r="J24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" t="s">
         <v>106</v>
       </c>
-      <c r="E24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s">
-        <v>248</v>
-      </c>
-      <c r="I24" t="s">
-        <v>249</v>
-      </c>
-      <c r="J24" t="s">
-        <v>223</v>
-      </c>
-      <c r="L24" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" t="s">
-        <v>105</v>
-      </c>
       <c r="N24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="T24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>251</v>
+      </c>
+      <c r="I25" t="s">
+        <v>252</v>
+      </c>
+      <c r="J25" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" t="s">
         <v>108</v>
       </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s">
-        <v>250</v>
-      </c>
-      <c r="I25" t="s">
-        <v>251</v>
-      </c>
-      <c r="J25" t="s">
-        <v>223</v>
-      </c>
-      <c r="L25" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" t="s">
-        <v>107</v>
-      </c>
       <c r="N25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S25" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>253</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" t="s">
         <v>110</v>
       </c>
-      <c r="E26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s">
-        <v>252</v>
-      </c>
-      <c r="I26" t="s">
-        <v>253</v>
-      </c>
-      <c r="J26" t="s">
-        <v>223</v>
-      </c>
-      <c r="L26" t="s">
-        <v>77</v>
-      </c>
-      <c r="M26" t="s">
-        <v>109</v>
-      </c>
       <c r="N26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S26" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="T26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" t="s">
         <v>112</v>
       </c>
-      <c r="E27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s">
-        <v>254</v>
-      </c>
-      <c r="I27" t="s">
-        <v>255</v>
-      </c>
-      <c r="J27" t="s">
-        <v>223</v>
-      </c>
-      <c r="L27" t="s">
-        <v>77</v>
-      </c>
-      <c r="M27" t="s">
-        <v>111</v>
-      </c>
       <c r="N27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="S27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="T27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>257</v>
+      </c>
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" t="s">
         <v>114</v>
       </c>
-      <c r="E28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s">
-        <v>256</v>
-      </c>
-      <c r="I28" t="s">
-        <v>257</v>
-      </c>
-      <c r="J28" t="s">
-        <v>223</v>
-      </c>
-      <c r="L28" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" t="s">
-        <v>113</v>
-      </c>
       <c r="N28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="T28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s">
+        <v>259</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M29" t="s">
         <v>116</v>
       </c>
-      <c r="E29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" t="s">
-        <v>258</v>
-      </c>
-      <c r="I29" t="s">
-        <v>259</v>
-      </c>
-      <c r="J29" t="s">
-        <v>223</v>
-      </c>
-      <c r="L29" t="s">
-        <v>77</v>
-      </c>
-      <c r="M29" t="s">
-        <v>115</v>
-      </c>
       <c r="N29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T29" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>261</v>
+      </c>
+      <c r="I30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" t="s">
         <v>118</v>
       </c>
-      <c r="E30" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s">
-        <v>260</v>
-      </c>
-      <c r="I30" t="s">
-        <v>261</v>
-      </c>
-      <c r="J30" t="s">
-        <v>223</v>
-      </c>
-      <c r="L30" t="s">
-        <v>77</v>
-      </c>
-      <c r="M30" t="s">
-        <v>117</v>
-      </c>
       <c r="N30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S30" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="T30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s">
+        <v>263</v>
+      </c>
+      <c r="I31" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s">
+        <v>78</v>
+      </c>
+      <c r="M31" t="s">
         <v>120</v>
       </c>
-      <c r="E31" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s">
-        <v>262</v>
-      </c>
-      <c r="I31" t="s">
-        <v>263</v>
-      </c>
-      <c r="J31" t="s">
-        <v>223</v>
-      </c>
-      <c r="L31" t="s">
-        <v>77</v>
-      </c>
-      <c r="M31" t="s">
-        <v>119</v>
-      </c>
       <c r="N31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>265</v>
+      </c>
+      <c r="I32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" t="s">
+        <v>224</v>
+      </c>
+      <c r="L32" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32" t="s">
         <v>122</v>
       </c>
-      <c r="E32" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s">
-        <v>264</v>
-      </c>
-      <c r="I32" t="s">
-        <v>265</v>
-      </c>
-      <c r="J32" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" t="s">
-        <v>77</v>
-      </c>
-      <c r="M32" t="s">
-        <v>121</v>
-      </c>
       <c r="N32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I33" t="s">
+        <v>268</v>
+      </c>
+      <c r="J33" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M33" t="s">
         <v>124</v>
       </c>
-      <c r="E33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" t="s">
-        <v>266</v>
-      </c>
-      <c r="I33" t="s">
-        <v>267</v>
-      </c>
-      <c r="J33" t="s">
-        <v>223</v>
-      </c>
-      <c r="L33" t="s">
-        <v>77</v>
-      </c>
-      <c r="M33" t="s">
-        <v>123</v>
-      </c>
       <c r="N33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="S33" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="T33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I34" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" t="s">
+        <v>224</v>
+      </c>
+      <c r="L34" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" t="s">
+        <v>126</v>
+      </c>
+      <c r="N34" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>78</v>
+      </c>
+      <c r="R34" t="s">
+        <v>124</v>
+      </c>
+      <c r="S34" t="s">
         <v>125</v>
       </c>
-      <c r="D34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s">
-        <v>268</v>
-      </c>
-      <c r="I34" t="s">
-        <v>269</v>
-      </c>
-      <c r="J34" t="s">
-        <v>223</v>
-      </c>
-      <c r="L34" t="s">
-        <v>77</v>
-      </c>
-      <c r="M34" t="s">
-        <v>125</v>
-      </c>
-      <c r="N34" t="s">
-        <v>126</v>
-      </c>
-      <c r="O34" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>77</v>
-      </c>
-      <c r="R34" t="s">
-        <v>123</v>
-      </c>
-      <c r="S34" t="s">
-        <v>124</v>
-      </c>
       <c r="T34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s">
+        <v>271</v>
+      </c>
+      <c r="I35" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35" t="s">
         <v>128</v>
       </c>
-      <c r="E35" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" t="s">
-        <v>270</v>
-      </c>
-      <c r="I35" t="s">
-        <v>271</v>
-      </c>
-      <c r="J35" t="s">
-        <v>223</v>
-      </c>
-      <c r="L35" t="s">
-        <v>77</v>
-      </c>
-      <c r="M35" t="s">
-        <v>127</v>
-      </c>
       <c r="N35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R35" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S35" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="T35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>273</v>
+      </c>
+      <c r="I36" t="s">
+        <v>274</v>
+      </c>
+      <c r="J36" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" t="s">
+        <v>78</v>
+      </c>
+      <c r="M36" t="s">
         <v>130</v>
       </c>
-      <c r="E36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" t="s">
-        <v>272</v>
-      </c>
-      <c r="I36" t="s">
-        <v>273</v>
-      </c>
-      <c r="J36" t="s">
-        <v>223</v>
-      </c>
-      <c r="L36" t="s">
-        <v>77</v>
-      </c>
-      <c r="M36" t="s">
-        <v>129</v>
-      </c>
       <c r="N36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="T36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>275</v>
+      </c>
+      <c r="I37" t="s">
+        <v>276</v>
+      </c>
+      <c r="J37" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37" t="s">
         <v>132</v>
       </c>
-      <c r="E37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" t="s">
-        <v>274</v>
-      </c>
-      <c r="I37" t="s">
-        <v>275</v>
-      </c>
-      <c r="J37" t="s">
-        <v>223</v>
-      </c>
-      <c r="L37" t="s">
-        <v>77</v>
-      </c>
-      <c r="M37" t="s">
-        <v>131</v>
-      </c>
       <c r="N37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="S37" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="T37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" t="s">
+        <v>78</v>
+      </c>
+      <c r="M38" t="s">
         <v>134</v>
       </c>
-      <c r="E38" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I38" t="s">
-        <v>277</v>
-      </c>
-      <c r="J38" t="s">
-        <v>223</v>
-      </c>
-      <c r="L38" t="s">
-        <v>77</v>
-      </c>
-      <c r="M38" t="s">
-        <v>133</v>
-      </c>
       <c r="N38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R38" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="S38" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="T38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s">
+        <v>279</v>
+      </c>
+      <c r="I39" t="s">
+        <v>280</v>
+      </c>
+      <c r="J39" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" t="s">
+        <v>78</v>
+      </c>
+      <c r="M39" t="s">
         <v>136</v>
       </c>
-      <c r="E39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" t="s">
-        <v>278</v>
-      </c>
-      <c r="I39" t="s">
-        <v>279</v>
-      </c>
-      <c r="J39" t="s">
-        <v>223</v>
-      </c>
-      <c r="L39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M39" t="s">
-        <v>135</v>
-      </c>
       <c r="N39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O39" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R39" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="S39" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="T39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s">
+        <v>281</v>
+      </c>
+      <c r="I40" t="s">
+        <v>282</v>
+      </c>
+      <c r="J40" t="s">
+        <v>224</v>
+      </c>
+      <c r="L40" t="s">
+        <v>78</v>
+      </c>
+      <c r="M40" t="s">
         <v>138</v>
       </c>
-      <c r="E40" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" t="s">
-        <v>77</v>
-      </c>
-      <c r="H40" t="s">
-        <v>280</v>
-      </c>
-      <c r="I40" t="s">
-        <v>281</v>
-      </c>
-      <c r="J40" t="s">
-        <v>223</v>
-      </c>
-      <c r="L40" t="s">
-        <v>77</v>
-      </c>
-      <c r="M40" t="s">
-        <v>137</v>
-      </c>
       <c r="N40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R40" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S40" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="T40" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s">
+        <v>283</v>
+      </c>
+      <c r="I41" t="s">
+        <v>284</v>
+      </c>
+      <c r="J41" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" t="s">
+        <v>78</v>
+      </c>
+      <c r="M41" t="s">
         <v>140</v>
       </c>
-      <c r="E41" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" t="s">
-        <v>282</v>
-      </c>
-      <c r="I41" t="s">
-        <v>283</v>
-      </c>
-      <c r="J41" t="s">
-        <v>223</v>
-      </c>
-      <c r="L41" t="s">
-        <v>77</v>
-      </c>
-      <c r="M41" t="s">
-        <v>139</v>
-      </c>
       <c r="N41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O41" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R41" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S41" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s">
+        <v>285</v>
+      </c>
+      <c r="I42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42" t="s">
+        <v>78</v>
+      </c>
+      <c r="M42" t="s">
         <v>142</v>
       </c>
-      <c r="E42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" t="s">
-        <v>284</v>
-      </c>
-      <c r="I42" t="s">
-        <v>285</v>
-      </c>
-      <c r="J42" t="s">
-        <v>223</v>
-      </c>
-      <c r="L42" t="s">
-        <v>77</v>
-      </c>
-      <c r="M42" t="s">
-        <v>141</v>
-      </c>
       <c r="N42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s">
+        <v>287</v>
+      </c>
+      <c r="I43" t="s">
+        <v>288</v>
+      </c>
+      <c r="J43" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" t="s">
+        <v>78</v>
+      </c>
+      <c r="M43" t="s">
         <v>144</v>
       </c>
-      <c r="E43" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" t="s">
-        <v>286</v>
-      </c>
-      <c r="I43" t="s">
-        <v>287</v>
-      </c>
-      <c r="J43" t="s">
-        <v>223</v>
-      </c>
-      <c r="L43" t="s">
-        <v>77</v>
-      </c>
-      <c r="M43" t="s">
-        <v>143</v>
-      </c>
       <c r="N43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R43" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="S43" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s">
+        <v>289</v>
+      </c>
+      <c r="I44" t="s">
+        <v>290</v>
+      </c>
+      <c r="J44" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" t="s">
+        <v>78</v>
+      </c>
+      <c r="M44" t="s">
         <v>146</v>
       </c>
-      <c r="E44" t="s">
-        <v>80</v>
-      </c>
-      <c r="G44" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" t="s">
-        <v>288</v>
-      </c>
-      <c r="I44" t="s">
-        <v>289</v>
-      </c>
-      <c r="J44" t="s">
-        <v>223</v>
-      </c>
-      <c r="L44" t="s">
-        <v>77</v>
-      </c>
-      <c r="M44" t="s">
-        <v>145</v>
-      </c>
       <c r="N44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O44" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T44" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s">
+        <v>291</v>
+      </c>
+      <c r="I45" t="s">
+        <v>292</v>
+      </c>
+      <c r="J45" t="s">
+        <v>224</v>
+      </c>
+      <c r="L45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M45" t="s">
         <v>148</v>
       </c>
-      <c r="E45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H45" t="s">
-        <v>290</v>
-      </c>
-      <c r="I45" t="s">
-        <v>291</v>
-      </c>
-      <c r="J45" t="s">
-        <v>223</v>
-      </c>
-      <c r="L45" t="s">
-        <v>77</v>
-      </c>
-      <c r="M45" t="s">
-        <v>147</v>
-      </c>
       <c r="N45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O45" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s">
+        <v>293</v>
+      </c>
+      <c r="I46" t="s">
+        <v>294</v>
+      </c>
+      <c r="J46" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" t="s">
+        <v>78</v>
+      </c>
+      <c r="M46" t="s">
         <v>150</v>
       </c>
-      <c r="E46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" t="s">
-        <v>77</v>
-      </c>
-      <c r="H46" t="s">
-        <v>292</v>
-      </c>
-      <c r="I46" t="s">
-        <v>293</v>
-      </c>
-      <c r="J46" t="s">
-        <v>223</v>
-      </c>
-      <c r="L46" t="s">
-        <v>77</v>
-      </c>
-      <c r="M46" t="s">
-        <v>149</v>
-      </c>
       <c r="N46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R46" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="S46" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s">
+        <v>295</v>
+      </c>
+      <c r="I47" t="s">
+        <v>296</v>
+      </c>
+      <c r="J47" t="s">
+        <v>224</v>
+      </c>
+      <c r="L47" t="s">
+        <v>78</v>
+      </c>
+      <c r="M47" t="s">
         <v>152</v>
       </c>
-      <c r="E47" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" t="s">
-        <v>77</v>
-      </c>
-      <c r="H47" t="s">
-        <v>294</v>
-      </c>
-      <c r="I47" t="s">
-        <v>295</v>
-      </c>
-      <c r="J47" t="s">
-        <v>223</v>
-      </c>
-      <c r="L47" t="s">
-        <v>77</v>
-      </c>
-      <c r="M47" t="s">
-        <v>151</v>
-      </c>
       <c r="N47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R47" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S47" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="T47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s">
+        <v>297</v>
+      </c>
+      <c r="I48" t="s">
+        <v>298</v>
+      </c>
+      <c r="J48" t="s">
+        <v>224</v>
+      </c>
+      <c r="L48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M48" t="s">
         <v>154</v>
       </c>
-      <c r="E48" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" t="s">
-        <v>77</v>
-      </c>
-      <c r="H48" t="s">
-        <v>296</v>
-      </c>
-      <c r="I48" t="s">
-        <v>297</v>
-      </c>
-      <c r="J48" t="s">
-        <v>223</v>
-      </c>
-      <c r="L48" t="s">
-        <v>77</v>
-      </c>
-      <c r="M48" t="s">
-        <v>153</v>
-      </c>
       <c r="N48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R48" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S48" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="T48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="L49" t="s">
+        <v>78</v>
+      </c>
+      <c r="M49" t="s">
         <v>156</v>
       </c>
-      <c r="E49" t="s">
-        <v>80</v>
-      </c>
-      <c r="L49" t="s">
-        <v>77</v>
-      </c>
-      <c r="M49" t="s">
-        <v>155</v>
-      </c>
       <c r="N49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R49" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S49" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="T49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="L50" t="s">
+        <v>78</v>
+      </c>
+      <c r="M50" t="s">
         <v>158</v>
       </c>
-      <c r="E50" t="s">
-        <v>80</v>
-      </c>
-      <c r="L50" t="s">
-        <v>77</v>
-      </c>
-      <c r="M50" t="s">
-        <v>157</v>
-      </c>
       <c r="N50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R50" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S50" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T50" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="L51" t="s">
+        <v>78</v>
+      </c>
+      <c r="M51" t="s">
         <v>160</v>
       </c>
-      <c r="E51" t="s">
-        <v>80</v>
-      </c>
-      <c r="L51" t="s">
-        <v>77</v>
-      </c>
-      <c r="M51" t="s">
-        <v>159</v>
-      </c>
       <c r="N51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O51" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+      <c r="L52" t="s">
+        <v>78</v>
+      </c>
+      <c r="M52" t="s">
         <v>162</v>
       </c>
-      <c r="E52" t="s">
-        <v>80</v>
-      </c>
-      <c r="L52" t="s">
-        <v>77</v>
-      </c>
-      <c r="M52" t="s">
-        <v>161</v>
-      </c>
       <c r="N52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R52" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S52" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="T52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="L53" t="s">
+        <v>78</v>
+      </c>
+      <c r="M53" t="s">
         <v>164</v>
       </c>
-      <c r="E53" t="s">
-        <v>80</v>
-      </c>
-      <c r="L53" t="s">
-        <v>77</v>
-      </c>
-      <c r="M53" t="s">
-        <v>163</v>
-      </c>
       <c r="N53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T53" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" t="s">
+        <v>81</v>
+      </c>
+      <c r="L54" t="s">
+        <v>78</v>
+      </c>
+      <c r="M54" t="s">
         <v>166</v>
       </c>
-      <c r="E54" t="s">
-        <v>80</v>
-      </c>
-      <c r="L54" t="s">
-        <v>77</v>
-      </c>
-      <c r="M54" t="s">
-        <v>165</v>
-      </c>
       <c r="N54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R54" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="S54" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="L55" t="s">
+        <v>78</v>
+      </c>
+      <c r="M55" t="s">
         <v>168</v>
       </c>
-      <c r="E55" t="s">
-        <v>80</v>
-      </c>
-      <c r="L55" t="s">
-        <v>77</v>
-      </c>
-      <c r="M55" t="s">
-        <v>167</v>
-      </c>
       <c r="N55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R55" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S55" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T55" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" t="s">
+        <v>81</v>
+      </c>
+      <c r="L56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M56" t="s">
         <v>170</v>
       </c>
-      <c r="E56" t="s">
-        <v>80</v>
-      </c>
-      <c r="L56" t="s">
-        <v>77</v>
-      </c>
-      <c r="M56" t="s">
-        <v>169</v>
-      </c>
       <c r="N56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R56" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="S56" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="T56" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+      <c r="L57" t="s">
+        <v>78</v>
+      </c>
+      <c r="M57" t="s">
         <v>172</v>
       </c>
-      <c r="E57" t="s">
-        <v>80</v>
-      </c>
-      <c r="L57" t="s">
-        <v>77</v>
-      </c>
-      <c r="M57" t="s">
-        <v>171</v>
-      </c>
       <c r="N57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R57" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="S57" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="T57" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+      <c r="L58" t="s">
+        <v>78</v>
+      </c>
+      <c r="M58" t="s">
         <v>174</v>
       </c>
-      <c r="E58" t="s">
-        <v>80</v>
-      </c>
-      <c r="L58" t="s">
-        <v>77</v>
-      </c>
-      <c r="M58" t="s">
-        <v>173</v>
-      </c>
       <c r="N58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R58" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S58" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="T58" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" t="s">
+        <v>81</v>
+      </c>
+      <c r="L59" t="s">
+        <v>78</v>
+      </c>
+      <c r="M59" t="s">
         <v>176</v>
       </c>
-      <c r="E59" t="s">
-        <v>80</v>
-      </c>
-      <c r="L59" t="s">
-        <v>77</v>
-      </c>
-      <c r="M59" t="s">
-        <v>175</v>
-      </c>
       <c r="N59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R59" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="S59" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="T59" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" t="s">
+        <v>81</v>
+      </c>
+      <c r="L60" t="s">
+        <v>78</v>
+      </c>
+      <c r="M60" t="s">
         <v>178</v>
       </c>
-      <c r="E60" t="s">
-        <v>80</v>
-      </c>
-      <c r="L60" t="s">
-        <v>77</v>
-      </c>
-      <c r="M60" t="s">
-        <v>177</v>
-      </c>
       <c r="N60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R60" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="S60" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T60" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" t="s">
+        <v>81</v>
+      </c>
+      <c r="L61" t="s">
+        <v>78</v>
+      </c>
+      <c r="M61" t="s">
         <v>180</v>
       </c>
-      <c r="E61" t="s">
-        <v>80</v>
-      </c>
-      <c r="L61" t="s">
-        <v>77</v>
-      </c>
-      <c r="M61" t="s">
-        <v>179</v>
-      </c>
       <c r="N61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R61" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S61" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="T61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" t="s">
+        <v>81</v>
+      </c>
+      <c r="L62" t="s">
+        <v>78</v>
+      </c>
+      <c r="M62" t="s">
         <v>182</v>
       </c>
-      <c r="E62" t="s">
-        <v>80</v>
-      </c>
-      <c r="L62" t="s">
-        <v>77</v>
-      </c>
-      <c r="M62" t="s">
-        <v>181</v>
-      </c>
       <c r="N62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R62" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S62" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="T62" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" t="s">
+        <v>81</v>
+      </c>
+      <c r="L63" t="s">
+        <v>78</v>
+      </c>
+      <c r="M63" t="s">
         <v>184</v>
       </c>
-      <c r="E63" t="s">
-        <v>80</v>
-      </c>
-      <c r="L63" t="s">
-        <v>77</v>
-      </c>
-      <c r="M63" t="s">
-        <v>183</v>
-      </c>
       <c r="N63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R63" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S63" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="T63" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+      <c r="L64" t="s">
+        <v>78</v>
+      </c>
+      <c r="M64" t="s">
         <v>186</v>
       </c>
-      <c r="E64" t="s">
-        <v>80</v>
-      </c>
-      <c r="L64" t="s">
-        <v>77</v>
-      </c>
-      <c r="M64" t="s">
-        <v>185</v>
-      </c>
       <c r="N64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R64" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="S64" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="T64" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="L65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M65" t="s">
         <v>188</v>
       </c>
-      <c r="E65" t="s">
-        <v>80</v>
-      </c>
-      <c r="L65" t="s">
-        <v>77</v>
-      </c>
-      <c r="M65" t="s">
-        <v>187</v>
-      </c>
       <c r="N65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R65" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" t="s">
+        <v>81</v>
+      </c>
+      <c r="L66" t="s">
+        <v>78</v>
+      </c>
+      <c r="M66" t="s">
         <v>190</v>
       </c>
-      <c r="E66" t="s">
-        <v>80</v>
-      </c>
-      <c r="L66" t="s">
-        <v>77</v>
-      </c>
-      <c r="M66" t="s">
-        <v>189</v>
-      </c>
       <c r="N66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O66" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R66" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="S66" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="T66" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" t="s">
+        <v>81</v>
+      </c>
+      <c r="L67" t="s">
+        <v>78</v>
+      </c>
+      <c r="M67" t="s">
         <v>192</v>
       </c>
-      <c r="E67" t="s">
-        <v>80</v>
-      </c>
-      <c r="L67" t="s">
-        <v>77</v>
-      </c>
-      <c r="M67" t="s">
-        <v>191</v>
-      </c>
       <c r="N67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R67" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="S67" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="T67" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" t="s">
+        <v>81</v>
+      </c>
+      <c r="L68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M68" t="s">
         <v>194</v>
       </c>
-      <c r="E68" t="s">
-        <v>80</v>
-      </c>
-      <c r="L68" t="s">
-        <v>77</v>
-      </c>
-      <c r="M68" t="s">
-        <v>193</v>
-      </c>
       <c r="N68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R68" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="S68" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="T68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" t="s">
+        <v>81</v>
+      </c>
+      <c r="L69" t="s">
+        <v>78</v>
+      </c>
+      <c r="M69" t="s">
         <v>196</v>
       </c>
-      <c r="E69" t="s">
-        <v>80</v>
-      </c>
-      <c r="L69" t="s">
-        <v>77</v>
-      </c>
-      <c r="M69" t="s">
-        <v>195</v>
-      </c>
       <c r="N69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O69" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R69" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="S69" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="T69" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" t="s">
+        <v>81</v>
+      </c>
+      <c r="L70" t="s">
+        <v>78</v>
+      </c>
+      <c r="M70" t="s">
         <v>198</v>
       </c>
-      <c r="E70" t="s">
-        <v>80</v>
-      </c>
-      <c r="L70" t="s">
-        <v>77</v>
-      </c>
-      <c r="M70" t="s">
-        <v>197</v>
-      </c>
       <c r="N70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O70" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R70" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="S70" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="T70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" t="s">
+        <v>81</v>
+      </c>
+      <c r="L71" t="s">
+        <v>78</v>
+      </c>
+      <c r="M71" t="s">
         <v>200</v>
       </c>
-      <c r="E71" t="s">
-        <v>80</v>
-      </c>
-      <c r="L71" t="s">
-        <v>77</v>
-      </c>
-      <c r="M71" t="s">
-        <v>199</v>
-      </c>
       <c r="N71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R71" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="S71" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="T71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" t="s">
+        <v>81</v>
+      </c>
+      <c r="L72" t="s">
+        <v>78</v>
+      </c>
+      <c r="M72" t="s">
         <v>202</v>
       </c>
-      <c r="E72" t="s">
-        <v>80</v>
-      </c>
-      <c r="L72" t="s">
-        <v>77</v>
-      </c>
-      <c r="M72" t="s">
-        <v>201</v>
-      </c>
       <c r="N72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O72" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R72" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="S72" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="T72" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D73" t="s">
+        <v>205</v>
+      </c>
+      <c r="E73" t="s">
+        <v>81</v>
+      </c>
+      <c r="L73" t="s">
+        <v>78</v>
+      </c>
+      <c r="M73" t="s">
         <v>204</v>
       </c>
-      <c r="E73" t="s">
-        <v>80</v>
-      </c>
-      <c r="L73" t="s">
-        <v>77</v>
-      </c>
-      <c r="M73" t="s">
-        <v>203</v>
-      </c>
       <c r="N73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R73" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S73" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T73" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+      <c r="L74" t="s">
+        <v>78</v>
+      </c>
+      <c r="M74" t="s">
         <v>206</v>
       </c>
-      <c r="E74" t="s">
-        <v>80</v>
-      </c>
-      <c r="L74" t="s">
-        <v>77</v>
-      </c>
-      <c r="M74" t="s">
-        <v>205</v>
-      </c>
       <c r="N74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R74" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="S74" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="T74" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D75" t="s">
+        <v>209</v>
+      </c>
+      <c r="E75" t="s">
+        <v>81</v>
+      </c>
+      <c r="L75" t="s">
+        <v>78</v>
+      </c>
+      <c r="M75" t="s">
         <v>208</v>
       </c>
-      <c r="E75" t="s">
-        <v>80</v>
-      </c>
-      <c r="L75" t="s">
-        <v>77</v>
-      </c>
-      <c r="M75" t="s">
-        <v>207</v>
-      </c>
       <c r="N75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O75" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R75" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S75" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="T75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D76" t="s">
+        <v>211</v>
+      </c>
+      <c r="E76" t="s">
+        <v>81</v>
+      </c>
+      <c r="L76" t="s">
+        <v>78</v>
+      </c>
+      <c r="M76" t="s">
         <v>210</v>
       </c>
-      <c r="E76" t="s">
-        <v>80</v>
-      </c>
-      <c r="L76" t="s">
-        <v>77</v>
-      </c>
-      <c r="M76" t="s">
-        <v>209</v>
-      </c>
       <c r="N76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O76" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R76" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="S76" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="T76" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+      <c r="L77" t="s">
+        <v>78</v>
+      </c>
+      <c r="M77" t="s">
         <v>212</v>
       </c>
-      <c r="E77" t="s">
-        <v>80</v>
-      </c>
-      <c r="L77" t="s">
-        <v>77</v>
-      </c>
-      <c r="M77" t="s">
-        <v>211</v>
-      </c>
       <c r="N77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O77" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R77" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="S77" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T77" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D78" t="s">
+        <v>215</v>
+      </c>
+      <c r="E78" t="s">
+        <v>81</v>
+      </c>
+      <c r="L78" t="s">
+        <v>78</v>
+      </c>
+      <c r="M78" t="s">
         <v>214</v>
       </c>
-      <c r="E78" t="s">
-        <v>80</v>
-      </c>
-      <c r="L78" t="s">
-        <v>77</v>
-      </c>
-      <c r="M78" t="s">
-        <v>213</v>
-      </c>
       <c r="N78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T78" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D79" t="s">
+        <v>217</v>
+      </c>
+      <c r="E79" t="s">
+        <v>81</v>
+      </c>
+      <c r="L79" t="s">
+        <v>78</v>
+      </c>
+      <c r="M79" t="s">
         <v>216</v>
       </c>
-      <c r="E79" t="s">
-        <v>80</v>
-      </c>
-      <c r="L79" t="s">
-        <v>77</v>
-      </c>
-      <c r="M79" t="s">
-        <v>215</v>
-      </c>
       <c r="N79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O79" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R79" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="S79" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="T79" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" t="s">
+        <v>81</v>
+      </c>
+      <c r="L80" t="s">
+        <v>78</v>
+      </c>
+      <c r="M80" t="s">
         <v>218</v>
       </c>
-      <c r="E80" t="s">
-        <v>80</v>
-      </c>
-      <c r="L80" t="s">
-        <v>77</v>
-      </c>
-      <c r="M80" t="s">
-        <v>217</v>
-      </c>
       <c r="N80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O80" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q80" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R80" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="S80" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T80" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D81" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" t="s">
+        <v>81</v>
+      </c>
+      <c r="L81" t="s">
+        <v>78</v>
+      </c>
+      <c r="M81" t="s">
         <v>220</v>
       </c>
-      <c r="E81" t="s">
-        <v>80</v>
-      </c>
-      <c r="L81" t="s">
-        <v>77</v>
-      </c>
-      <c r="M81" t="s">
-        <v>219</v>
-      </c>
       <c r="N81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O81" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R81" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="S81" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="T81" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M82" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N82" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O82" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R82" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="T82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M83" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N83" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O83" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T83" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L84" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M84" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N84" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O84" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q84" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S84" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T84" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N85" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O85" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R85" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="S85" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="T85" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L86" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O86" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q86" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S86" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="T86" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L87" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M87" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N87" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O87" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q87" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T87" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L88" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M88" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O88" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q88" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S88" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T88" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L89" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O89" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q89" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R89" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="S89" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="T89" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L90" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N90" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O90" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q90" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R90" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="S90" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T90" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L91" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O91" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q91" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R91" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="S91" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="T91" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L92" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O92" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q92" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R92" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="S92" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="T92" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M93" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R93" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="S93" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T93" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L94" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O94" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q94" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R94" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="S94" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="T94" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O95" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R95" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S95" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T95" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.45">
       <c r="L96" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N96" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O96" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q96" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R96" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S96" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="T96" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M97" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O97" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R97" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="S97" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="T97" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L98" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N98" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O98" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q98" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R98" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="S98" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T98" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L99" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M99" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N99" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O99" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q99" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R99" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S99" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T99" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L100" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M100" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N100" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O100" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q100" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R100" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S100" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T100" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M101" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N101" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O101" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R101" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S101" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T101" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L102" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M102" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N102" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O102" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q102" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R102" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S102" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T102" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L103" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M103" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N103" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O103" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q103" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R103" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S103" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="T103" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L104" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O104" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q104" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R104" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="S104" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T104" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L105" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M105" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N105" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O105" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q105" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R105" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T105" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L106" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M106" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N106" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O106" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q106" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R106" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="S106" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="T106" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M107" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N107" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O107" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R107" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="S107" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T107" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L108" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M108" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N108" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O108" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q108" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R108" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="S108" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T108" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L109" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M109" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N109" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O109" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q109" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R109" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="S109" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T109" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L110" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M110" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N110" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O110" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q110" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R110" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="S110" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L111" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M111" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O111" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q111" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R111" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="S111" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="T111" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L112" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N112" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O112" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q112" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R112" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="S112" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T112" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L113" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M113" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N113" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O113" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q113" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R113" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="S113" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T113" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="114" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M114" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N114" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O114" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R114" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="S114" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T114" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L115" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M115" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N115" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O115" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q115" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R115" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="S115" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="T115" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L116" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M116" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N116" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O116" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q116" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R116" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S116" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T116" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L117" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M117" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N117" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O117" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q117" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R117" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S117" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T117" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L118" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M118" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N118" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O118" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q118" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R118" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="S118" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="T118" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M119" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N119" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O119" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R119" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="S119" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="T119" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L120" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M120" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N120" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O120" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q120" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R120" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="S120" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="T120" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L121" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N121" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O121" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q121" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R121" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S121" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="T121" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L122" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M122" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N122" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O122" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q122" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R122" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="S122" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="T122" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L123" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M123" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N123" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O123" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q123" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R123" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="S123" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="T123" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L124" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M124" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N124" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O124" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q124" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R124" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="S124" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="T124" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L125" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M125" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N125" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O125" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q125" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R125" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S125" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="T125" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L126" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M126" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N126" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O126" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q126" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R126" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="S126" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T126" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L127" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M127" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N127" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O127" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q127" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R127" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="S127" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T127" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L128" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M128" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N128" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O128" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q128" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R128" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="S128" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T128" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L129" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M129" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N129" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O129" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q129" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R129" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="S129" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="T129" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L130" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M130" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N130" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O130" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q130" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R130" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="S130" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="T130" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L131" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M131" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N131" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O131" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q131" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R131" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="S131" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T131" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="132" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L132" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M132" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N132" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O132" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q132" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R132" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S132" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T132" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="12:20" x14ac:dyDescent="0.45">
       <c r="Q133" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R133" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="S133" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T133" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="12:20" x14ac:dyDescent="0.45">
       <c r="Q134" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R134" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="S134" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="T134" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="12:20" x14ac:dyDescent="0.45">
       <c r="Q135" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R135" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="S135" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="T135" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="12:20" x14ac:dyDescent="0.45">
       <c r="Q136" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R136" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="S136" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T136" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="12:20" x14ac:dyDescent="0.45">
       <c r="Q137" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R137" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S137" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="T137" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="12:20" x14ac:dyDescent="0.45">
       <c r="Q138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R138" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="S138" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T138" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="139" spans="12:20" x14ac:dyDescent="0.45">
       <c r="Q139" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R139" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="S139" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T139" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="140" spans="12:20" x14ac:dyDescent="0.45">
       <c r="Q140" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R140" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="S140" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T140" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="12:20" x14ac:dyDescent="0.45">
       <c r="Q141" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R141" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="S141" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T141" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="142" spans="12:20" x14ac:dyDescent="0.45">
       <c r="Q142" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R142" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="S142" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T142" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="12:20" x14ac:dyDescent="0.45">
       <c r="Q143" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R143" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="S143" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="T143" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="12:20" x14ac:dyDescent="0.45">
       <c r="Q144" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R144" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="S144" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="T144" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="145" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q145" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R145" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="S145" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T145" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="146" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q146" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R146" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="S146" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T146" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q147" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R147" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="S147" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="T147" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q148" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R148" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="S148" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="T148" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="149" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q149" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R149" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="S149" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="T149" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="150" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q150" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R150" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S150" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T150" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="151" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q151" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R151" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="S151" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="T151" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="152" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q152" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R152" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="S152" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="T152" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q153" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R153" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="S153" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="T153" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q154" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R154" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="S154" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="T154" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q155" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R155" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="S155" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="T155" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q156" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R156" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="S156" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="T156" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q157" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R157" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="S157" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T157" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q158" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R158" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="S158" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="T158" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="17:20" x14ac:dyDescent="0.45">
       <c r="Q159" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R159" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="S159" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T159" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -7688,10 +7691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C4:X49"/>
+  <dimension ref="C4:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7826,7 +7829,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1">
         <v>8.76</v>
@@ -8386,7 +8389,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
         <v>24</v>
@@ -8397,7 +8400,7 @@
         <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
         <v>24</v>
@@ -8405,60 +8408,71 @@
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C46" t="s">
-        <v>4</v>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
         <v>66</v>
       </c>
-      <c r="D48">
-        <v>2025</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49">
+        <v>2025</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" t="s">
         <v>71</v>
-      </c>
-      <c r="D49">
-        <v>40</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F49" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A381A1F-85CD-4A2A-A722-BF8AA92024B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDF8D0C1-1AD6-440D-809B-3FD4BB5E07AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDF8D0C1-1AD6-440D-809B-3FD4BB5E07AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9506BD-FBB0-4C53-9D1E-31203D2BA308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="595">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -310,22 +310,1183 @@
     <t>at grid node - w145665799-380</t>
   </si>
   <si>
+    <t>w171270810-380</t>
+  </si>
+  <si>
+    <t>at grid node - w171270810-380</t>
+  </si>
+  <si>
+    <t>w133601335-380</t>
+  </si>
+  <si>
+    <t>at grid node - w133601335-380</t>
+  </si>
+  <si>
     <t>w84277460-220</t>
   </si>
   <si>
     <t>at grid node - w84277460-220</t>
   </si>
   <si>
-    <t>w171270810-380</t>
-  </si>
-  <si>
-    <t>at grid node - w171270810-380</t>
-  </si>
-  <si>
-    <t>w133601335-380</t>
-  </si>
-  <si>
-    <t>at grid node - w133601335-380</t>
+    <t>w102287716-220</t>
+  </si>
+  <si>
+    <t>at grid node - w102287716-220</t>
+  </si>
+  <si>
+    <t>w116797658-220</t>
+  </si>
+  <si>
+    <t>at grid node - w116797658-220</t>
+  </si>
+  <si>
+    <t>w98900549-380</t>
+  </si>
+  <si>
+    <t>at grid node - w98900549-380</t>
+  </si>
+  <si>
+    <t>w60616350-380</t>
+  </si>
+  <si>
+    <t>at grid node - w60616350-380</t>
+  </si>
+  <si>
+    <t>w107438024-380</t>
+  </si>
+  <si>
+    <t>at grid node - w107438024-380</t>
+  </si>
+  <si>
+    <t>w105757794-380</t>
+  </si>
+  <si>
+    <t>at grid node - w105757794-380</t>
+  </si>
+  <si>
+    <t>w103974940-380</t>
+  </si>
+  <si>
+    <t>at grid node - w103974940-380</t>
+  </si>
+  <si>
+    <t>w98421779-380</t>
+  </si>
+  <si>
+    <t>at grid node - w98421779-380</t>
+  </si>
+  <si>
+    <t>w100407576-380</t>
+  </si>
+  <si>
+    <t>at grid node - w100407576-380</t>
+  </si>
+  <si>
+    <t>w338969614-220</t>
+  </si>
+  <si>
+    <t>at grid node - w338969614-220</t>
+  </si>
+  <si>
+    <t>w432729521-380</t>
+  </si>
+  <si>
+    <t>at grid node - w432729521-380</t>
+  </si>
+  <si>
+    <t>w1051991398-220</t>
+  </si>
+  <si>
+    <t>at grid node - w1051991398-220</t>
+  </si>
+  <si>
+    <t>w60725875-220</t>
+  </si>
+  <si>
+    <t>at grid node - w60725875-220</t>
+  </si>
+  <si>
+    <t>w416989699-380</t>
+  </si>
+  <si>
+    <t>at grid node - w416989699-380</t>
+  </si>
+  <si>
+    <t>w435429368-220</t>
+  </si>
+  <si>
+    <t>at grid node - w435429368-220</t>
+  </si>
+  <si>
+    <t>w82078641-220</t>
+  </si>
+  <si>
+    <t>at grid node - w82078641-220</t>
+  </si>
+  <si>
+    <t>w421827453-380</t>
+  </si>
+  <si>
+    <t>at grid node - w421827453-380</t>
+  </si>
+  <si>
+    <t>w120916823-220</t>
+  </si>
+  <si>
+    <t>at grid node - w120916823-220</t>
+  </si>
+  <si>
+    <t>w100113593-380</t>
+  </si>
+  <si>
+    <t>at grid node - w100113593-380</t>
+  </si>
+  <si>
+    <t>w205597560-220</t>
+  </si>
+  <si>
+    <t>at grid node - w205597560-220</t>
+  </si>
+  <si>
+    <t>w158739183-380</t>
+  </si>
+  <si>
+    <t>at grid node - w158739183-380</t>
+  </si>
+  <si>
+    <t>w419423704-220</t>
+  </si>
+  <si>
+    <t>at grid node - w419423704-220</t>
+  </si>
+  <si>
+    <t>w375922076-220</t>
+  </si>
+  <si>
+    <t>at grid node - w375922076-220</t>
+  </si>
+  <si>
+    <t>w149997403-380</t>
+  </si>
+  <si>
+    <t>at grid node - w149997403-380</t>
+  </si>
+  <si>
+    <t>w109993642-380</t>
+  </si>
+  <si>
+    <t>at grid node - w109993642-380</t>
+  </si>
+  <si>
+    <t>w414663585-380</t>
+  </si>
+  <si>
+    <t>at grid node - w414663585-380</t>
+  </si>
+  <si>
+    <t>w181125039-380</t>
+  </si>
+  <si>
+    <t>at grid node - w181125039-380</t>
+  </si>
+  <si>
+    <t>w418565264-380</t>
+  </si>
+  <si>
+    <t>at grid node - w418565264-380</t>
+  </si>
+  <si>
+    <t>w339703159-220</t>
+  </si>
+  <si>
+    <t>at grid node - w339703159-220</t>
+  </si>
+  <si>
+    <t>w255011550-380</t>
+  </si>
+  <si>
+    <t>at grid node - w255011550-380</t>
+  </si>
+  <si>
+    <t>w109756016-380</t>
+  </si>
+  <si>
+    <t>at grid node - w109756016-380</t>
+  </si>
+  <si>
+    <t>w82084019-380</t>
+  </si>
+  <si>
+    <t>at grid node - w82084019-380</t>
+  </si>
+  <si>
+    <t>w61038773-220</t>
+  </si>
+  <si>
+    <t>at grid node - w61038773-220</t>
+  </si>
+  <si>
+    <t>w199675964-380</t>
+  </si>
+  <si>
+    <t>at grid node - w199675964-380</t>
+  </si>
+  <si>
+    <t>w419423705-380</t>
+  </si>
+  <si>
+    <t>at grid node - w419423705-380</t>
+  </si>
+  <si>
+    <t>w185576620-220</t>
+  </si>
+  <si>
+    <t>at grid node - w185576620-220</t>
+  </si>
+  <si>
+    <t>w162960205-220</t>
+  </si>
+  <si>
+    <t>at grid node - w162960205-220</t>
+  </si>
+  <si>
+    <t>w338948868-220</t>
+  </si>
+  <si>
+    <t>at grid node - w338948868-220</t>
+  </si>
+  <si>
+    <t>w411026199-380</t>
+  </si>
+  <si>
+    <t>at grid node - w411026199-380</t>
+  </si>
+  <si>
+    <t>w132701980-380</t>
+  </si>
+  <si>
+    <t>at grid node - w132701980-380</t>
+  </si>
+  <si>
+    <t>w377830944-220</t>
+  </si>
+  <si>
+    <t>at grid node - w377830944-220</t>
+  </si>
+  <si>
+    <t>w82767145-220</t>
+  </si>
+  <si>
+    <t>at grid node - w82767145-220</t>
+  </si>
+  <si>
+    <t>w59462715-380</t>
+  </si>
+  <si>
+    <t>at grid node - w59462715-380</t>
+  </si>
+  <si>
+    <t>w162828577-220</t>
+  </si>
+  <si>
+    <t>at grid node - w162828577-220</t>
+  </si>
+  <si>
+    <t>w103653591-380</t>
+  </si>
+  <si>
+    <t>at grid node - w103653591-380</t>
+  </si>
+  <si>
+    <t>w98901130-380</t>
+  </si>
+  <si>
+    <t>at grid node - w98901130-380</t>
+  </si>
+  <si>
+    <t>w418902800-380</t>
+  </si>
+  <si>
+    <t>at grid node - w418902800-380</t>
+  </si>
+  <si>
+    <t>w409439916-380</t>
+  </si>
+  <si>
+    <t>at grid node - w409439916-380</t>
+  </si>
+  <si>
+    <t>w375892272-220</t>
+  </si>
+  <si>
+    <t>at grid node - w375892272-220</t>
+  </si>
+  <si>
+    <t>w76709660-380</t>
+  </si>
+  <si>
+    <t>at grid node - w76709660-380</t>
+  </si>
+  <si>
+    <t>EN_Hydro_ITA-1,EN_Hydro_ITA-2,EN_Hydro_ITA-3</t>
+  </si>
+  <si>
+    <t>w61650514-220</t>
+  </si>
+  <si>
+    <t>at grid node - w61650514-220</t>
+  </si>
+  <si>
+    <t>w159158469-220</t>
+  </si>
+  <si>
+    <t>at grid node - w159158469-220</t>
+  </si>
+  <si>
+    <t>IT102-380</t>
+  </si>
+  <si>
+    <t>at grid node - IT102-380</t>
+  </si>
+  <si>
+    <t>IT14-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT14-220</t>
+  </si>
+  <si>
+    <t>w102675884-220</t>
+  </si>
+  <si>
+    <t>at grid node - w102675884-220</t>
+  </si>
+  <si>
+    <t>w114931087-380</t>
+  </si>
+  <si>
+    <t>at grid node - w114931087-380</t>
+  </si>
+  <si>
+    <t>w157666416-220</t>
+  </si>
+  <si>
+    <t>at grid node - w157666416-220</t>
+  </si>
+  <si>
+    <t>w412967421-220</t>
+  </si>
+  <si>
+    <t>at grid node - w412967421-220</t>
+  </si>
+  <si>
+    <t>r7837848-220</t>
+  </si>
+  <si>
+    <t>at grid node - r7837848-220</t>
+  </si>
+  <si>
+    <t>w105801489-220</t>
+  </si>
+  <si>
+    <t>at grid node - w105801489-220</t>
+  </si>
+  <si>
+    <t>w108020416-220</t>
+  </si>
+  <si>
+    <t>at grid node - w108020416-220</t>
+  </si>
+  <si>
+    <t>w111020792-220</t>
+  </si>
+  <si>
+    <t>at grid node - w111020792-220</t>
+  </si>
+  <si>
+    <t>IT5-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT5-220</t>
+  </si>
+  <si>
+    <t>w1100665914-380</t>
+  </si>
+  <si>
+    <t>at grid node - w1100665914-380</t>
+  </si>
+  <si>
+    <t>w419423700-220</t>
+  </si>
+  <si>
+    <t>at grid node - w419423700-220</t>
+  </si>
+  <si>
+    <t>w163056522-220</t>
+  </si>
+  <si>
+    <t>at grid node - w163056522-220</t>
+  </si>
+  <si>
+    <t>w153548074-220</t>
+  </si>
+  <si>
+    <t>at grid node - w153548074-220</t>
+  </si>
+  <si>
+    <t>w72466334-380</t>
+  </si>
+  <si>
+    <t>at grid node - w72466334-380</t>
+  </si>
+  <si>
+    <t>IT4-380</t>
+  </si>
+  <si>
+    <t>at grid node - IT4-380</t>
+  </si>
+  <si>
+    <t>w82793962-220</t>
+  </si>
+  <si>
+    <t>at grid node - w82793962-220</t>
+  </si>
+  <si>
+    <t>w61712456-380</t>
+  </si>
+  <si>
+    <t>at grid node - w61712456-380</t>
+  </si>
+  <si>
+    <t>w103418587-220</t>
+  </si>
+  <si>
+    <t>at grid node - w103418587-220</t>
+  </si>
+  <si>
+    <t>IT16-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT16-220</t>
+  </si>
+  <si>
+    <t>w64200868-380</t>
+  </si>
+  <si>
+    <t>at grid node - w64200868-380</t>
+  </si>
+  <si>
+    <t>w104359058-380</t>
+  </si>
+  <si>
+    <t>at grid node - w104359058-380</t>
+  </si>
+  <si>
+    <t>w155976582-220</t>
+  </si>
+  <si>
+    <t>at grid node - w155976582-220</t>
+  </si>
+  <si>
+    <t>w202772821-220</t>
+  </si>
+  <si>
+    <t>at grid node - w202772821-220</t>
+  </si>
+  <si>
+    <t>w189137043-220</t>
+  </si>
+  <si>
+    <t>at grid node - w189137043-220</t>
+  </si>
+  <si>
+    <t>w80442466-220</t>
+  </si>
+  <si>
+    <t>at grid node - w80442466-220</t>
+  </si>
+  <si>
+    <t>w172705586-220</t>
+  </si>
+  <si>
+    <t>at grid node - w172705586-220</t>
+  </si>
+  <si>
+    <t>w116517585-380</t>
+  </si>
+  <si>
+    <t>at grid node - w116517585-380</t>
+  </si>
+  <si>
+    <t>w144378054-220</t>
+  </si>
+  <si>
+    <t>at grid node - w144378054-220</t>
+  </si>
+  <si>
+    <t>w42862642-220</t>
+  </si>
+  <si>
+    <t>at grid node - w42862642-220</t>
+  </si>
+  <si>
+    <t>w163056526-220</t>
+  </si>
+  <si>
+    <t>at grid node - w163056526-220</t>
+  </si>
+  <si>
+    <t>w153772895-220</t>
+  </si>
+  <si>
+    <t>at grid node - w153772895-220</t>
+  </si>
+  <si>
+    <t>w377832777-220</t>
+  </si>
+  <si>
+    <t>at grid node - w377832777-220</t>
+  </si>
+  <si>
+    <t>IT8-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT8-220</t>
+  </si>
+  <si>
+    <t>w61712456-220</t>
+  </si>
+  <si>
+    <t>at grid node - w61712456-220</t>
+  </si>
+  <si>
+    <t>w103007085-220</t>
+  </si>
+  <si>
+    <t>at grid node - w103007085-220</t>
+  </si>
+  <si>
+    <t>w158652469-220</t>
+  </si>
+  <si>
+    <t>at grid node - w158652469-220</t>
+  </si>
+  <si>
+    <t>IT137-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT137-220</t>
+  </si>
+  <si>
+    <t>w59620552-220</t>
+  </si>
+  <si>
+    <t>at grid node - w59620552-220</t>
+  </si>
+  <si>
+    <t>IT135-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT135-220</t>
+  </si>
+  <si>
+    <t>w104114052-220</t>
+  </si>
+  <si>
+    <t>at grid node - w104114052-220</t>
+  </si>
+  <si>
+    <t>IT79-380</t>
+  </si>
+  <si>
+    <t>at grid node - IT79-380</t>
+  </si>
+  <si>
+    <t>IT47-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT47-220</t>
+  </si>
+  <si>
+    <t>w412967424-220</t>
+  </si>
+  <si>
+    <t>at grid node - w412967424-220</t>
+  </si>
+  <si>
+    <t>w419423704-380</t>
+  </si>
+  <si>
+    <t>at grid node - w419423704-380</t>
+  </si>
+  <si>
+    <t>w376351180-220</t>
+  </si>
+  <si>
+    <t>at grid node - w376351180-220</t>
+  </si>
+  <si>
+    <t>r1377432-220</t>
+  </si>
+  <si>
+    <t>at grid node - r1377432-220</t>
+  </si>
+  <si>
+    <t>IT13-380</t>
+  </si>
+  <si>
+    <t>at grid node - IT13-380</t>
+  </si>
+  <si>
+    <t>w66872608-220</t>
+  </si>
+  <si>
+    <t>at grid node - w66872608-220</t>
+  </si>
+  <si>
+    <t>r6301099-220</t>
+  </si>
+  <si>
+    <t>at grid node - r6301099-220</t>
+  </si>
+  <si>
+    <t>w72466334-220</t>
+  </si>
+  <si>
+    <t>at grid node - w72466334-220</t>
+  </si>
+  <si>
+    <t>w96190189-380</t>
+  </si>
+  <si>
+    <t>at grid node - w96190189-380</t>
+  </si>
+  <si>
+    <t>w147466201-220</t>
+  </si>
+  <si>
+    <t>at grid node - w147466201-220</t>
+  </si>
+  <si>
+    <t>w98787157-220</t>
+  </si>
+  <si>
+    <t>at grid node - w98787157-220</t>
+  </si>
+  <si>
+    <t>w159821869-220</t>
+  </si>
+  <si>
+    <t>at grid node - w159821869-220</t>
+  </si>
+  <si>
+    <t>w105827045-220</t>
+  </si>
+  <si>
+    <t>at grid node - w105827045-220</t>
+  </si>
+  <si>
+    <t>w151335166-220</t>
+  </si>
+  <si>
+    <t>at grid node - w151335166-220</t>
+  </si>
+  <si>
+    <t>w409768426-220</t>
+  </si>
+  <si>
+    <t>at grid node - w409768426-220</t>
+  </si>
+  <si>
+    <t>w158599954-220</t>
+  </si>
+  <si>
+    <t>at grid node - w158599954-220</t>
+  </si>
+  <si>
+    <t>w214294769-220</t>
+  </si>
+  <si>
+    <t>at grid node - w214294769-220</t>
+  </si>
+  <si>
+    <t>w103127417-220</t>
+  </si>
+  <si>
+    <t>at grid node - w103127417-220</t>
+  </si>
+  <si>
+    <t>w491424937-380</t>
+  </si>
+  <si>
+    <t>at grid node - w491424937-380</t>
+  </si>
+  <si>
+    <t>w163789376-220</t>
+  </si>
+  <si>
+    <t>at grid node - w163789376-220</t>
+  </si>
+  <si>
+    <t>w377588191-220</t>
+  </si>
+  <si>
+    <t>at grid node - w377588191-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL,EN_STG4hbNREL</t>
+  </si>
+  <si>
+    <t>w116692433-220</t>
+  </si>
+  <si>
+    <t>at grid node - w116692433-220</t>
+  </si>
+  <si>
+    <t>w81938081-380</t>
+  </si>
+  <si>
+    <t>at grid node - w81938081-380</t>
+  </si>
+  <si>
+    <t>IT67-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT67-220</t>
+  </si>
+  <si>
+    <t>w105141350-220</t>
+  </si>
+  <si>
+    <t>at grid node - w105141350-220</t>
+  </si>
+  <si>
+    <t>IT116-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT116-220</t>
+  </si>
+  <si>
+    <t>w257351439-380</t>
+  </si>
+  <si>
+    <t>at grid node - w257351439-380</t>
+  </si>
+  <si>
+    <t>w144006711-220</t>
+  </si>
+  <si>
+    <t>at grid node - w144006711-220</t>
+  </si>
+  <si>
+    <t>e_demand,ev_battery,H2prd_Elc_PEM,H2prd_Elc_ALK</t>
+  </si>
+  <si>
+    <t>IT119-380</t>
+  </si>
+  <si>
+    <t>at grid node - IT119-380</t>
+  </si>
+  <si>
+    <t>IT130-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT130-220</t>
+  </si>
+  <si>
+    <t>IT131-380</t>
+  </si>
+  <si>
+    <t>at grid node - IT131-380</t>
+  </si>
+  <si>
+    <t>IT133-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT133-220</t>
+  </si>
+  <si>
+    <t>IT140-380</t>
+  </si>
+  <si>
+    <t>at grid node - IT140-380</t>
+  </si>
+  <si>
+    <t>IT17-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT17-220</t>
+  </si>
+  <si>
+    <t>IT29-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT29-220</t>
+  </si>
+  <si>
+    <t>IT31-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT31-220</t>
+  </si>
+  <si>
+    <t>IT43-380</t>
+  </si>
+  <si>
+    <t>at grid node - IT43-380</t>
+  </si>
+  <si>
+    <t>IT58-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT58-220</t>
+  </si>
+  <si>
+    <t>IT65-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT65-220</t>
+  </si>
+  <si>
+    <t>IT66-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT66-220</t>
+  </si>
+  <si>
+    <t>IT69-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT69-220</t>
+  </si>
+  <si>
+    <t>IT70-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT70-220</t>
+  </si>
+  <si>
+    <t>IT83-220</t>
+  </si>
+  <si>
+    <t>at grid node - IT83-220</t>
+  </si>
+  <si>
+    <t>IT93-380</t>
+  </si>
+  <si>
+    <t>at grid node - IT93-380</t>
+  </si>
+  <si>
+    <t>IT94-380</t>
+  </si>
+  <si>
+    <t>at grid node - IT94-380</t>
+  </si>
+  <si>
+    <t>r13844905-220</t>
+  </si>
+  <si>
+    <t>at grid node - r13844905-220</t>
+  </si>
+  <si>
+    <t>r13844905-380</t>
+  </si>
+  <si>
+    <t>at grid node - r13844905-380</t>
+  </si>
+  <si>
+    <t>r17467354-380</t>
+  </si>
+  <si>
+    <t>at grid node - r17467354-380</t>
+  </si>
+  <si>
+    <t>w100253768-380</t>
+  </si>
+  <si>
+    <t>at grid node - w100253768-380</t>
+  </si>
+  <si>
+    <t>w101346508-220</t>
+  </si>
+  <si>
+    <t>at grid node - w101346508-220</t>
+  </si>
+  <si>
+    <t>w103264820-220</t>
+  </si>
+  <si>
+    <t>at grid node - w103264820-220</t>
+  </si>
+  <si>
+    <t>w103306951-380</t>
+  </si>
+  <si>
+    <t>at grid node - w103306951-380</t>
+  </si>
+  <si>
+    <t>w103386958-380</t>
+  </si>
+  <si>
+    <t>at grid node - w103386958-380</t>
+  </si>
+  <si>
+    <t>w103653565-220</t>
+  </si>
+  <si>
+    <t>at grid node - w103653565-220</t>
+  </si>
+  <si>
+    <t>w105757794-220</t>
+  </si>
+  <si>
+    <t>at grid node - w105757794-220</t>
+  </si>
+  <si>
+    <t>w107681459-380</t>
+  </si>
+  <si>
+    <t>at grid node - w107681459-380</t>
+  </si>
+  <si>
+    <t>w107683818-380</t>
+  </si>
+  <si>
+    <t>at grid node - w107683818-380</t>
+  </si>
+  <si>
+    <t>w109997676-380</t>
+  </si>
+  <si>
+    <t>at grid node - w109997676-380</t>
+  </si>
+  <si>
+    <t>w110310021-380</t>
+  </si>
+  <si>
+    <t>at grid node - w110310021-380</t>
+  </si>
+  <si>
+    <t>w1158716725</t>
+  </si>
+  <si>
+    <t>at grid node - w1158716725</t>
+  </si>
+  <si>
+    <t>w118987056-220</t>
+  </si>
+  <si>
+    <t>at grid node - w118987056-220</t>
+  </si>
+  <si>
+    <t>w124220303-220</t>
+  </si>
+  <si>
+    <t>at grid node - w124220303-220</t>
+  </si>
+  <si>
+    <t>w126203383-380</t>
+  </si>
+  <si>
+    <t>at grid node - w126203383-380</t>
+  </si>
+  <si>
+    <t>w129406824-220</t>
+  </si>
+  <si>
+    <t>at grid node - w129406824-220</t>
+  </si>
+  <si>
+    <t>w131291789-380</t>
+  </si>
+  <si>
+    <t>at grid node - w131291789-380</t>
+  </si>
+  <si>
+    <t>w131295368-220</t>
+  </si>
+  <si>
+    <t>at grid node - w131295368-220</t>
+  </si>
+  <si>
+    <t>w132455976-220</t>
+  </si>
+  <si>
+    <t>at grid node - w132455976-220</t>
+  </si>
+  <si>
+    <t>w132645607-220</t>
+  </si>
+  <si>
+    <t>at grid node - w132645607-220</t>
+  </si>
+  <si>
+    <t>w132701980-220</t>
+  </si>
+  <si>
+    <t>at grid node - w132701980-220</t>
+  </si>
+  <si>
+    <t>w132702940-220</t>
+  </si>
+  <si>
+    <t>at grid node - w132702940-220</t>
+  </si>
+  <si>
+    <t>w132726160-220</t>
+  </si>
+  <si>
+    <t>at grid node - w132726160-220</t>
+  </si>
+  <si>
+    <t>w136457747-220</t>
+  </si>
+  <si>
+    <t>at grid node - w136457747-220</t>
+  </si>
+  <si>
+    <t>w136762727</t>
+  </si>
+  <si>
+    <t>at grid node - w136762727</t>
+  </si>
+  <si>
+    <t>w137317951-220</t>
+  </si>
+  <si>
+    <t>at grid node - w137317951-220</t>
+  </si>
+  <si>
+    <t>w139442467-220</t>
+  </si>
+  <si>
+    <t>at grid node - w139442467-220</t>
+  </si>
+  <si>
+    <t>w139442467-380</t>
+  </si>
+  <si>
+    <t>at grid node - w139442467-380</t>
+  </si>
+  <si>
+    <t>w139975773-380</t>
+  </si>
+  <si>
+    <t>at grid node - w139975773-380</t>
+  </si>
+  <si>
+    <t>w140715391-380</t>
+  </si>
+  <si>
+    <t>at grid node - w140715391-380</t>
+  </si>
+  <si>
+    <t>w143585004-380</t>
+  </si>
+  <si>
+    <t>at grid node - w143585004-380</t>
+  </si>
+  <si>
+    <t>w145665799-220</t>
+  </si>
+  <si>
+    <t>at grid node - w145665799-220</t>
+  </si>
+  <si>
+    <t>w146791061-380</t>
+  </si>
+  <si>
+    <t>at grid node - w146791061-380</t>
+  </si>
+  <si>
+    <t>w146791215-380</t>
+  </si>
+  <si>
+    <t>at grid node - w146791215-380</t>
+  </si>
+  <si>
+    <t>w148969091-380</t>
+  </si>
+  <si>
+    <t>at grid node - w148969091-380</t>
+  </si>
+  <si>
+    <t>w149188707-220</t>
+  </si>
+  <si>
+    <t>at grid node - w149188707-220</t>
+  </si>
+  <si>
+    <t>w155976563-220</t>
+  </si>
+  <si>
+    <t>at grid node - w155976563-220</t>
+  </si>
+  <si>
+    <t>w166196787-220</t>
+  </si>
+  <si>
+    <t>at grid node - w166196787-220</t>
+  </si>
+  <si>
+    <t>w202178573-220</t>
+  </si>
+  <si>
+    <t>at grid node - w202178573-220</t>
+  </si>
+  <si>
+    <t>w202272734-220</t>
+  </si>
+  <si>
+    <t>at grid node - w202272734-220</t>
+  </si>
+  <si>
+    <t>w202711181-220</t>
+  </si>
+  <si>
+    <t>at grid node - w202711181-220</t>
+  </si>
+  <si>
+    <t>w208398923-380</t>
+  </si>
+  <si>
+    <t>at grid node - w208398923-380</t>
+  </si>
+  <si>
+    <t>w289178949-220</t>
+  </si>
+  <si>
+    <t>at grid node - w289178949-220</t>
+  </si>
+  <si>
+    <t>w309371152-220</t>
+  </si>
+  <si>
+    <t>at grid node - w309371152-220</t>
+  </si>
+  <si>
+    <t>w321724202-380</t>
+  </si>
+  <si>
+    <t>at grid node - w321724202-380</t>
+  </si>
+  <si>
+    <t>w338453112-380</t>
+  </si>
+  <si>
+    <t>at grid node - w338453112-380</t>
+  </si>
+  <si>
+    <t>w338760116-380</t>
+  </si>
+  <si>
+    <t>at grid node - w338760116-380</t>
+  </si>
+  <si>
+    <t>w339703159-380</t>
+  </si>
+  <si>
+    <t>at grid node - w339703159-380</t>
   </si>
   <si>
     <t>w339706878-380</t>
@@ -334,40 +1495,22 @@
     <t>at grid node - w339706878-380</t>
   </si>
   <si>
-    <t>w102287716-220</t>
-  </si>
-  <si>
-    <t>at grid node - w102287716-220</t>
-  </si>
-  <si>
-    <t>IT121-380</t>
-  </si>
-  <si>
-    <t>at grid node - IT121-380</t>
-  </si>
-  <si>
-    <t>IT39-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT39-220</t>
-  </si>
-  <si>
-    <t>w116797658-220</t>
-  </si>
-  <si>
-    <t>at grid node - w116797658-220</t>
-  </si>
-  <si>
-    <t>w98900549-380</t>
-  </si>
-  <si>
-    <t>at grid node - w98900549-380</t>
-  </si>
-  <si>
-    <t>w60616350-380</t>
-  </si>
-  <si>
-    <t>at grid node - w60616350-380</t>
+    <t>w339706879-380</t>
+  </si>
+  <si>
+    <t>at grid node - w339706879-380</t>
+  </si>
+  <si>
+    <t>w339706880-380</t>
+  </si>
+  <si>
+    <t>at grid node - w339706880-380</t>
+  </si>
+  <si>
+    <t>w363469921-380</t>
+  </si>
+  <si>
+    <t>at grid node - w363469921-380</t>
   </si>
   <si>
     <t>w36873258-220</t>
@@ -376,280 +1519,10 @@
     <t>at grid node - w36873258-220</t>
   </si>
   <si>
-    <t>w107438024-380</t>
-  </si>
-  <si>
-    <t>at grid node - w107438024-380</t>
-  </si>
-  <si>
-    <t>w105757794-380</t>
-  </si>
-  <si>
-    <t>at grid node - w105757794-380</t>
-  </si>
-  <si>
-    <t>w60235685-380</t>
-  </si>
-  <si>
-    <t>at grid node - w60235685-380</t>
-  </si>
-  <si>
-    <t>w103974940-380</t>
-  </si>
-  <si>
-    <t>at grid node - w103974940-380</t>
-  </si>
-  <si>
-    <t>w98421779-380</t>
-  </si>
-  <si>
-    <t>at grid node - w98421779-380</t>
-  </si>
-  <si>
-    <t>w107681459-380</t>
-  </si>
-  <si>
-    <t>at grid node - w107681459-380</t>
-  </si>
-  <si>
-    <t>w100407576-380</t>
-  </si>
-  <si>
-    <t>at grid node - w100407576-380</t>
-  </si>
-  <si>
-    <t>w338969614-220</t>
-  </si>
-  <si>
-    <t>at grid node - w338969614-220</t>
-  </si>
-  <si>
-    <t>w105141307-220</t>
-  </si>
-  <si>
-    <t>at grid node - w105141307-220</t>
-  </si>
-  <si>
-    <t>w432729521-380</t>
-  </si>
-  <si>
-    <t>at grid node - w432729521-380</t>
-  </si>
-  <si>
-    <t>w1051991398-220</t>
-  </si>
-  <si>
-    <t>at grid node - w1051991398-220</t>
-  </si>
-  <si>
-    <t>w60725875-220</t>
-  </si>
-  <si>
-    <t>at grid node - w60725875-220</t>
-  </si>
-  <si>
-    <t>w416989699-380</t>
-  </si>
-  <si>
-    <t>at grid node - w416989699-380</t>
-  </si>
-  <si>
-    <t>w435429368-220</t>
-  </si>
-  <si>
-    <t>at grid node - w435429368-220</t>
-  </si>
-  <si>
-    <t>w82078641-220</t>
-  </si>
-  <si>
-    <t>at grid node - w82078641-220</t>
-  </si>
-  <si>
-    <t>w421827453-380</t>
-  </si>
-  <si>
-    <t>at grid node - w421827453-380</t>
-  </si>
-  <si>
-    <t>w120916823-220</t>
-  </si>
-  <si>
-    <t>at grid node - w120916823-220</t>
-  </si>
-  <si>
-    <t>w100113593-380</t>
-  </si>
-  <si>
-    <t>at grid node - w100113593-380</t>
-  </si>
-  <si>
-    <t>w205597560-220</t>
-  </si>
-  <si>
-    <t>at grid node - w205597560-220</t>
-  </si>
-  <si>
-    <t>w158739183-380</t>
-  </si>
-  <si>
-    <t>at grid node - w158739183-380</t>
-  </si>
-  <si>
-    <t>w155158689-380</t>
-  </si>
-  <si>
-    <t>at grid node - w155158689-380</t>
-  </si>
-  <si>
-    <t>w419423704-220</t>
-  </si>
-  <si>
-    <t>at grid node - w419423704-220</t>
-  </si>
-  <si>
-    <t>w375922076-220</t>
-  </si>
-  <si>
-    <t>at grid node - w375922076-220</t>
-  </si>
-  <si>
-    <t>w149997403-380</t>
-  </si>
-  <si>
-    <t>at grid node - w149997403-380</t>
-  </si>
-  <si>
-    <t>w109993642-380</t>
-  </si>
-  <si>
-    <t>at grid node - w109993642-380</t>
-  </si>
-  <si>
-    <t>w414663585-380</t>
-  </si>
-  <si>
-    <t>at grid node - w414663585-380</t>
-  </si>
-  <si>
-    <t>w109588422-380</t>
-  </si>
-  <si>
-    <t>at grid node - w109588422-380</t>
-  </si>
-  <si>
-    <t>w181125039-380</t>
-  </si>
-  <si>
-    <t>at grid node - w181125039-380</t>
-  </si>
-  <si>
-    <t>w350356755-220</t>
-  </si>
-  <si>
-    <t>at grid node - w350356755-220</t>
-  </si>
-  <si>
-    <t>w418565264-380</t>
-  </si>
-  <si>
-    <t>at grid node - w418565264-380</t>
-  </si>
-  <si>
-    <t>w339703159-220</t>
-  </si>
-  <si>
-    <t>at grid node - w339703159-220</t>
-  </si>
-  <si>
-    <t>w255011550-380</t>
-  </si>
-  <si>
-    <t>at grid node - w255011550-380</t>
-  </si>
-  <si>
-    <t>w109756016-380</t>
-  </si>
-  <si>
-    <t>at grid node - w109756016-380</t>
-  </si>
-  <si>
-    <t>w82084019-380</t>
-  </si>
-  <si>
-    <t>at grid node - w82084019-380</t>
-  </si>
-  <si>
-    <t>w61038773-220</t>
-  </si>
-  <si>
-    <t>at grid node - w61038773-220</t>
-  </si>
-  <si>
-    <t>w199675964-380</t>
-  </si>
-  <si>
-    <t>at grid node - w199675964-380</t>
-  </si>
-  <si>
-    <t>w419423705-380</t>
-  </si>
-  <si>
-    <t>at grid node - w419423705-380</t>
-  </si>
-  <si>
-    <t>w185576620-220</t>
-  </si>
-  <si>
-    <t>at grid node - w185576620-220</t>
-  </si>
-  <si>
-    <t>w162960205-220</t>
-  </si>
-  <si>
-    <t>at grid node - w162960205-220</t>
-  </si>
-  <si>
-    <t>w166196787-220</t>
-  </si>
-  <si>
-    <t>at grid node - w166196787-220</t>
-  </si>
-  <si>
-    <t>w338948868-220</t>
-  </si>
-  <si>
-    <t>at grid node - w338948868-220</t>
-  </si>
-  <si>
-    <t>w411026199-380</t>
-  </si>
-  <si>
-    <t>at grid node - w411026199-380</t>
-  </si>
-  <si>
-    <t>w132701980-380</t>
-  </si>
-  <si>
-    <t>at grid node - w132701980-380</t>
-  </si>
-  <si>
-    <t>w377830944-220</t>
-  </si>
-  <si>
-    <t>at grid node - w377830944-220</t>
-  </si>
-  <si>
-    <t>w82767145-220</t>
-  </si>
-  <si>
-    <t>at grid node - w82767145-220</t>
-  </si>
-  <si>
-    <t>w59462715-380</t>
-  </si>
-  <si>
-    <t>at grid node - w59462715-380</t>
+    <t>w36873258-380</t>
+  </si>
+  <si>
+    <t>at grid node - w36873258-380</t>
   </si>
   <si>
     <t>w375908008-220</t>
@@ -658,819 +1531,6 @@
     <t>at grid node - w375908008-220</t>
   </si>
   <si>
-    <t>w162828577-220</t>
-  </si>
-  <si>
-    <t>at grid node - w162828577-220</t>
-  </si>
-  <si>
-    <t>w103653591-380</t>
-  </si>
-  <si>
-    <t>at grid node - w103653591-380</t>
-  </si>
-  <si>
-    <t>w104321356-220</t>
-  </si>
-  <si>
-    <t>at grid node - w104321356-220</t>
-  </si>
-  <si>
-    <t>w99694910-380</t>
-  </si>
-  <si>
-    <t>at grid node - w99694910-380</t>
-  </si>
-  <si>
-    <t>w98901130-380</t>
-  </si>
-  <si>
-    <t>at grid node - w98901130-380</t>
-  </si>
-  <si>
-    <t>w418902800-380</t>
-  </si>
-  <si>
-    <t>at grid node - w418902800-380</t>
-  </si>
-  <si>
-    <t>w409439916-380</t>
-  </si>
-  <si>
-    <t>at grid node - w409439916-380</t>
-  </si>
-  <si>
-    <t>w375892272-220</t>
-  </si>
-  <si>
-    <t>at grid node - w375892272-220</t>
-  </si>
-  <si>
-    <t>w159158469-220</t>
-  </si>
-  <si>
-    <t>at grid node - w159158469-220</t>
-  </si>
-  <si>
-    <t>EN_Hydro_ITA-1,EN_Hydro_ITA-2,EN_Hydro_ITA-3</t>
-  </si>
-  <si>
-    <t>w102675884-220</t>
-  </si>
-  <si>
-    <t>at grid node - w102675884-220</t>
-  </si>
-  <si>
-    <t>w114931087-380</t>
-  </si>
-  <si>
-    <t>at grid node - w114931087-380</t>
-  </si>
-  <si>
-    <t>w419423700-220</t>
-  </si>
-  <si>
-    <t>at grid node - w419423700-220</t>
-  </si>
-  <si>
-    <t>w105801489-220</t>
-  </si>
-  <si>
-    <t>at grid node - w105801489-220</t>
-  </si>
-  <si>
-    <t>w82793962-220</t>
-  </si>
-  <si>
-    <t>at grid node - w82793962-220</t>
-  </si>
-  <si>
-    <t>w64200868-380</t>
-  </si>
-  <si>
-    <t>at grid node - w64200868-380</t>
-  </si>
-  <si>
-    <t>w104359058-380</t>
-  </si>
-  <si>
-    <t>at grid node - w104359058-380</t>
-  </si>
-  <si>
-    <t>w155976582-220</t>
-  </si>
-  <si>
-    <t>at grid node - w155976582-220</t>
-  </si>
-  <si>
-    <t>w61712456-380</t>
-  </si>
-  <si>
-    <t>at grid node - w61712456-380</t>
-  </si>
-  <si>
-    <t>w189137043-220</t>
-  </si>
-  <si>
-    <t>at grid node - w189137043-220</t>
-  </si>
-  <si>
-    <t>w80442466-220</t>
-  </si>
-  <si>
-    <t>at grid node - w80442466-220</t>
-  </si>
-  <si>
-    <t>w42862642-220</t>
-  </si>
-  <si>
-    <t>at grid node - w42862642-220</t>
-  </si>
-  <si>
-    <t>w163056526-220</t>
-  </si>
-  <si>
-    <t>at grid node - w163056526-220</t>
-  </si>
-  <si>
-    <t>IT4-380</t>
-  </si>
-  <si>
-    <t>at grid node - IT4-380</t>
-  </si>
-  <si>
-    <t>w158652469-220</t>
-  </si>
-  <si>
-    <t>at grid node - w158652469-220</t>
-  </si>
-  <si>
-    <t>IT137-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT137-220</t>
-  </si>
-  <si>
-    <t>w59620552-220</t>
-  </si>
-  <si>
-    <t>at grid node - w59620552-220</t>
-  </si>
-  <si>
-    <t>w1100665914-380</t>
-  </si>
-  <si>
-    <t>at grid node - w1100665914-380</t>
-  </si>
-  <si>
-    <t>IT79-380</t>
-  </si>
-  <si>
-    <t>at grid node - IT79-380</t>
-  </si>
-  <si>
-    <t>w412967424-220</t>
-  </si>
-  <si>
-    <t>at grid node - w412967424-220</t>
-  </si>
-  <si>
-    <t>w419423704-380</t>
-  </si>
-  <si>
-    <t>at grid node - w419423704-380</t>
-  </si>
-  <si>
-    <t>w376351180-220</t>
-  </si>
-  <si>
-    <t>at grid node - w376351180-220</t>
-  </si>
-  <si>
-    <t>r1377432-220</t>
-  </si>
-  <si>
-    <t>at grid node - r1377432-220</t>
-  </si>
-  <si>
-    <t>IT13-380</t>
-  </si>
-  <si>
-    <t>at grid node - IT13-380</t>
-  </si>
-  <si>
-    <t>w66872608-220</t>
-  </si>
-  <si>
-    <t>at grid node - w66872608-220</t>
-  </si>
-  <si>
-    <t>w72466334-220</t>
-  </si>
-  <si>
-    <t>at grid node - w72466334-220</t>
-  </si>
-  <si>
-    <t>w96190189-380</t>
-  </si>
-  <si>
-    <t>at grid node - w96190189-380</t>
-  </si>
-  <si>
-    <t>w147466201-220</t>
-  </si>
-  <si>
-    <t>at grid node - w147466201-220</t>
-  </si>
-  <si>
-    <t>w98787157-220</t>
-  </si>
-  <si>
-    <t>at grid node - w98787157-220</t>
-  </si>
-  <si>
-    <t>w61650514-220</t>
-  </si>
-  <si>
-    <t>at grid node - w61650514-220</t>
-  </si>
-  <si>
-    <t>w163056522-220</t>
-  </si>
-  <si>
-    <t>at grid node - w163056522-220</t>
-  </si>
-  <si>
-    <t>w159821869-220</t>
-  </si>
-  <si>
-    <t>at grid node - w159821869-220</t>
-  </si>
-  <si>
-    <t>w151335166-220</t>
-  </si>
-  <si>
-    <t>at grid node - w151335166-220</t>
-  </si>
-  <si>
-    <t>w409768426-220</t>
-  </si>
-  <si>
-    <t>at grid node - w409768426-220</t>
-  </si>
-  <si>
-    <t>w103127417-220</t>
-  </si>
-  <si>
-    <t>at grid node - w103127417-220</t>
-  </si>
-  <si>
-    <t>w491424937-380</t>
-  </si>
-  <si>
-    <t>at grid node - w491424937-380</t>
-  </si>
-  <si>
-    <t>w163789376-220</t>
-  </si>
-  <si>
-    <t>at grid node - w163789376-220</t>
-  </si>
-  <si>
-    <t>EN_STG8hbNREL,EN_STG4hbNREL</t>
-  </si>
-  <si>
-    <t>w136762727</t>
-  </si>
-  <si>
-    <t>at grid node - w136762727</t>
-  </si>
-  <si>
-    <t>IT142-380</t>
-  </si>
-  <si>
-    <t>at grid node - IT142-380</t>
-  </si>
-  <si>
-    <t>w339706880-380</t>
-  </si>
-  <si>
-    <t>at grid node - w339706880-380</t>
-  </si>
-  <si>
-    <t>w209982720-380</t>
-  </si>
-  <si>
-    <t>at grid node - w209982720-380</t>
-  </si>
-  <si>
-    <t>w257351439-380</t>
-  </si>
-  <si>
-    <t>at grid node - w257351439-380</t>
-  </si>
-  <si>
-    <t>w303965869-380</t>
-  </si>
-  <si>
-    <t>at grid node - w303965869-380</t>
-  </si>
-  <si>
-    <t>IT135-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT135-220</t>
-  </si>
-  <si>
-    <t>IT67-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT67-220</t>
-  </si>
-  <si>
-    <t>w105141350-220</t>
-  </si>
-  <si>
-    <t>at grid node - w105141350-220</t>
-  </si>
-  <si>
-    <t>w116692433-220</t>
-  </si>
-  <si>
-    <t>at grid node - w116692433-220</t>
-  </si>
-  <si>
-    <t>w144006711-220</t>
-  </si>
-  <si>
-    <t>at grid node - w144006711-220</t>
-  </si>
-  <si>
-    <t>w377588191-220</t>
-  </si>
-  <si>
-    <t>at grid node - w377588191-220</t>
-  </si>
-  <si>
-    <t>w81938081-380</t>
-  </si>
-  <si>
-    <t>at grid node - w81938081-380</t>
-  </si>
-  <si>
-    <t>IT102-380</t>
-  </si>
-  <si>
-    <t>at grid node - IT102-380</t>
-  </si>
-  <si>
-    <t>e_demand,ev_battery,H2prd_Elc_PEM,H2prd_Elc_ALK</t>
-  </si>
-  <si>
-    <t>IT119-380</t>
-  </si>
-  <si>
-    <t>at grid node - IT119-380</t>
-  </si>
-  <si>
-    <t>IT130-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT130-220</t>
-  </si>
-  <si>
-    <t>IT131-380</t>
-  </si>
-  <si>
-    <t>at grid node - IT131-380</t>
-  </si>
-  <si>
-    <t>IT133-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT133-220</t>
-  </si>
-  <si>
-    <t>IT140-380</t>
-  </si>
-  <si>
-    <t>at grid node - IT140-380</t>
-  </si>
-  <si>
-    <t>IT17-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT17-220</t>
-  </si>
-  <si>
-    <t>IT29-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT29-220</t>
-  </si>
-  <si>
-    <t>IT31-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT31-220</t>
-  </si>
-  <si>
-    <t>IT43-380</t>
-  </si>
-  <si>
-    <t>at grid node - IT43-380</t>
-  </si>
-  <si>
-    <t>IT58-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT58-220</t>
-  </si>
-  <si>
-    <t>IT65-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT65-220</t>
-  </si>
-  <si>
-    <t>IT66-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT66-220</t>
-  </si>
-  <si>
-    <t>IT69-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT69-220</t>
-  </si>
-  <si>
-    <t>IT70-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT70-220</t>
-  </si>
-  <si>
-    <t>IT83-220</t>
-  </si>
-  <si>
-    <t>at grid node - IT83-220</t>
-  </si>
-  <si>
-    <t>IT93-380</t>
-  </si>
-  <si>
-    <t>at grid node - IT93-380</t>
-  </si>
-  <si>
-    <t>IT94-380</t>
-  </si>
-  <si>
-    <t>at grid node - IT94-380</t>
-  </si>
-  <si>
-    <t>r13844905-220</t>
-  </si>
-  <si>
-    <t>at grid node - r13844905-220</t>
-  </si>
-  <si>
-    <t>r13844905-380</t>
-  </si>
-  <si>
-    <t>at grid node - r13844905-380</t>
-  </si>
-  <si>
-    <t>r17467354-380</t>
-  </si>
-  <si>
-    <t>at grid node - r17467354-380</t>
-  </si>
-  <si>
-    <t>w100253768-380</t>
-  </si>
-  <si>
-    <t>at grid node - w100253768-380</t>
-  </si>
-  <si>
-    <t>w101346508-220</t>
-  </si>
-  <si>
-    <t>at grid node - w101346508-220</t>
-  </si>
-  <si>
-    <t>w103264820-220</t>
-  </si>
-  <si>
-    <t>at grid node - w103264820-220</t>
-  </si>
-  <si>
-    <t>w103306951-380</t>
-  </si>
-  <si>
-    <t>at grid node - w103306951-380</t>
-  </si>
-  <si>
-    <t>w103386958-380</t>
-  </si>
-  <si>
-    <t>at grid node - w103386958-380</t>
-  </si>
-  <si>
-    <t>w103653565-220</t>
-  </si>
-  <si>
-    <t>at grid node - w103653565-220</t>
-  </si>
-  <si>
-    <t>w105757794-220</t>
-  </si>
-  <si>
-    <t>at grid node - w105757794-220</t>
-  </si>
-  <si>
-    <t>w105827045-220</t>
-  </si>
-  <si>
-    <t>at grid node - w105827045-220</t>
-  </si>
-  <si>
-    <t>w107683818-380</t>
-  </si>
-  <si>
-    <t>at grid node - w107683818-380</t>
-  </si>
-  <si>
-    <t>w109997676-380</t>
-  </si>
-  <si>
-    <t>at grid node - w109997676-380</t>
-  </si>
-  <si>
-    <t>w110310021-380</t>
-  </si>
-  <si>
-    <t>at grid node - w110310021-380</t>
-  </si>
-  <si>
-    <t>w1158716725</t>
-  </si>
-  <si>
-    <t>at grid node - w1158716725</t>
-  </si>
-  <si>
-    <t>w116517585-380</t>
-  </si>
-  <si>
-    <t>at grid node - w116517585-380</t>
-  </si>
-  <si>
-    <t>w118987056-220</t>
-  </si>
-  <si>
-    <t>at grid node - w118987056-220</t>
-  </si>
-  <si>
-    <t>w124220303-220</t>
-  </si>
-  <si>
-    <t>at grid node - w124220303-220</t>
-  </si>
-  <si>
-    <t>w126203383-380</t>
-  </si>
-  <si>
-    <t>at grid node - w126203383-380</t>
-  </si>
-  <si>
-    <t>w129406824-220</t>
-  </si>
-  <si>
-    <t>at grid node - w129406824-220</t>
-  </si>
-  <si>
-    <t>w131291789-380</t>
-  </si>
-  <si>
-    <t>at grid node - w131291789-380</t>
-  </si>
-  <si>
-    <t>w131295368-220</t>
-  </si>
-  <si>
-    <t>at grid node - w131295368-220</t>
-  </si>
-  <si>
-    <t>w132455976-220</t>
-  </si>
-  <si>
-    <t>at grid node - w132455976-220</t>
-  </si>
-  <si>
-    <t>w132645607-220</t>
-  </si>
-  <si>
-    <t>at grid node - w132645607-220</t>
-  </si>
-  <si>
-    <t>w132701980-220</t>
-  </si>
-  <si>
-    <t>at grid node - w132701980-220</t>
-  </si>
-  <si>
-    <t>w132702940-220</t>
-  </si>
-  <si>
-    <t>at grid node - w132702940-220</t>
-  </si>
-  <si>
-    <t>w132726160-220</t>
-  </si>
-  <si>
-    <t>at grid node - w132726160-220</t>
-  </si>
-  <si>
-    <t>w136457747-220</t>
-  </si>
-  <si>
-    <t>at grid node - w136457747-220</t>
-  </si>
-  <si>
-    <t>w137317951-220</t>
-  </si>
-  <si>
-    <t>at grid node - w137317951-220</t>
-  </si>
-  <si>
-    <t>w139442467-220</t>
-  </si>
-  <si>
-    <t>at grid node - w139442467-220</t>
-  </si>
-  <si>
-    <t>w139442467-380</t>
-  </si>
-  <si>
-    <t>at grid node - w139442467-380</t>
-  </si>
-  <si>
-    <t>w139975773-380</t>
-  </si>
-  <si>
-    <t>at grid node - w139975773-380</t>
-  </si>
-  <si>
-    <t>w140715391-380</t>
-  </si>
-  <si>
-    <t>at grid node - w140715391-380</t>
-  </si>
-  <si>
-    <t>w143585004-380</t>
-  </si>
-  <si>
-    <t>at grid node - w143585004-380</t>
-  </si>
-  <si>
-    <t>w144378054-220</t>
-  </si>
-  <si>
-    <t>at grid node - w144378054-220</t>
-  </si>
-  <si>
-    <t>w145665799-220</t>
-  </si>
-  <si>
-    <t>at grid node - w145665799-220</t>
-  </si>
-  <si>
-    <t>w146791061-380</t>
-  </si>
-  <si>
-    <t>at grid node - w146791061-380</t>
-  </si>
-  <si>
-    <t>w146791215-380</t>
-  </si>
-  <si>
-    <t>at grid node - w146791215-380</t>
-  </si>
-  <si>
-    <t>w148969091-380</t>
-  </si>
-  <si>
-    <t>at grid node - w148969091-380</t>
-  </si>
-  <si>
-    <t>w149188707-220</t>
-  </si>
-  <si>
-    <t>at grid node - w149188707-220</t>
-  </si>
-  <si>
-    <t>w155976563-220</t>
-  </si>
-  <si>
-    <t>at grid node - w155976563-220</t>
-  </si>
-  <si>
-    <t>w157666416-220</t>
-  </si>
-  <si>
-    <t>at grid node - w157666416-220</t>
-  </si>
-  <si>
-    <t>w158599954-220</t>
-  </si>
-  <si>
-    <t>at grid node - w158599954-220</t>
-  </si>
-  <si>
-    <t>w172705586-220</t>
-  </si>
-  <si>
-    <t>at grid node - w172705586-220</t>
-  </si>
-  <si>
-    <t>w202178573-220</t>
-  </si>
-  <si>
-    <t>at grid node - w202178573-220</t>
-  </si>
-  <si>
-    <t>w202272734-220</t>
-  </si>
-  <si>
-    <t>at grid node - w202272734-220</t>
-  </si>
-  <si>
-    <t>w202711181-220</t>
-  </si>
-  <si>
-    <t>at grid node - w202711181-220</t>
-  </si>
-  <si>
-    <t>w208398923-380</t>
-  </si>
-  <si>
-    <t>at grid node - w208398923-380</t>
-  </si>
-  <si>
-    <t>w289178949-220</t>
-  </si>
-  <si>
-    <t>at grid node - w289178949-220</t>
-  </si>
-  <si>
-    <t>w309371152-220</t>
-  </si>
-  <si>
-    <t>at grid node - w309371152-220</t>
-  </si>
-  <si>
-    <t>w321724202-380</t>
-  </si>
-  <si>
-    <t>at grid node - w321724202-380</t>
-  </si>
-  <si>
-    <t>w338453112-380</t>
-  </si>
-  <si>
-    <t>at grid node - w338453112-380</t>
-  </si>
-  <si>
-    <t>w338760116-380</t>
-  </si>
-  <si>
-    <t>at grid node - w338760116-380</t>
-  </si>
-  <si>
-    <t>w339703159-380</t>
-  </si>
-  <si>
-    <t>at grid node - w339703159-380</t>
-  </si>
-  <si>
-    <t>w339706879-380</t>
-  </si>
-  <si>
-    <t>at grid node - w339706879-380</t>
-  </si>
-  <si>
-    <t>w363469921-380</t>
-  </si>
-  <si>
-    <t>at grid node - w363469921-380</t>
-  </si>
-  <si>
-    <t>w36873258-380</t>
-  </si>
-  <si>
-    <t>at grid node - w36873258-380</t>
-  </si>
-  <si>
     <t>w376502734-220</t>
   </si>
   <si>
@@ -1697,12 +1757,6 @@
   </si>
   <si>
     <t>at grid node - w76705565-380</t>
-  </si>
-  <si>
-    <t>w76709660-380</t>
-  </si>
-  <si>
-    <t>at grid node - w76709660-380</t>
   </si>
   <si>
     <t>w78066534-380</t>
@@ -2204,37 +2258,37 @@
         <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="I11" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="J11" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L11" t="s">
         <v>78</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="O11" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q11" t="s">
         <v>78</v>
       </c>
       <c r="R11" t="s">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="S11" t="s">
-        <v>327</v>
+        <v>202</v>
       </c>
       <c r="T11" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.45">
@@ -2254,37 +2308,37 @@
         <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="I12" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="J12" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L12" t="s">
         <v>78</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="O12" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q12" t="s">
         <v>78</v>
       </c>
       <c r="R12" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="S12" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="T12" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.45">
@@ -2304,37 +2358,37 @@
         <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="I13" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="J13" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L13" t="s">
         <v>78</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="O13" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q13" t="s">
         <v>78</v>
       </c>
       <c r="R13" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="S13" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="T13" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.45">
@@ -2354,37 +2408,37 @@
         <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="I14" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="J14" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L14" t="s">
         <v>78</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>336</v>
       </c>
       <c r="N14" t="s">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="O14" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q14" t="s">
         <v>78</v>
       </c>
       <c r="R14" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="S14" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="T14" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.45">
@@ -2404,37 +2458,37 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="I15" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="J15" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L15" t="s">
         <v>78</v>
       </c>
       <c r="M15" t="s">
-        <v>88</v>
+        <v>338</v>
       </c>
       <c r="N15" t="s">
-        <v>89</v>
+        <v>339</v>
       </c>
       <c r="O15" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q15" t="s">
         <v>78</v>
       </c>
       <c r="R15" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="S15" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="T15" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.45">
@@ -2454,37 +2508,37 @@
         <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="I16" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="J16" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s">
         <v>78</v>
       </c>
       <c r="M16" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="N16" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="O16" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q16" t="s">
         <v>78</v>
       </c>
       <c r="R16" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="S16" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="T16" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.45">
@@ -2504,37 +2558,37 @@
         <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="I17" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="J17" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
         <v>78</v>
       </c>
       <c r="M17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O17" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q17" t="s">
         <v>78</v>
       </c>
       <c r="R17" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="S17" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="T17" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.45">
@@ -2554,37 +2608,37 @@
         <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="I18" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J18" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s">
         <v>78</v>
       </c>
       <c r="M18" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="O18" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q18" t="s">
         <v>78</v>
       </c>
       <c r="R18" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="S18" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="T18" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.45">
@@ -2604,37 +2658,37 @@
         <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="I19" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="J19" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
         <v>78</v>
       </c>
       <c r="M19" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="O19" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q19" t="s">
         <v>78</v>
       </c>
       <c r="R19" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="S19" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="T19" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.45">
@@ -2654,37 +2708,37 @@
         <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="I20" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="J20" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
         <v>78</v>
       </c>
       <c r="M20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N20" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O20" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q20" t="s">
         <v>78</v>
       </c>
       <c r="R20" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="S20" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="T20" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.45">
@@ -2704,37 +2758,37 @@
         <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="I21" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
         <v>78</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N21" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="O21" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q21" t="s">
         <v>78</v>
       </c>
       <c r="R21" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="S21" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="T21" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.45">
@@ -2754,37 +2808,37 @@
         <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="I22" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
         <v>78</v>
       </c>
       <c r="M22" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="N22" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O22" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q22" t="s">
         <v>78</v>
       </c>
       <c r="R22" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="S22" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="T22" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.45">
@@ -2804,37 +2858,37 @@
         <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="I23" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
         <v>78</v>
       </c>
       <c r="M23" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="N23" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="O23" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q23" t="s">
         <v>78</v>
       </c>
       <c r="R23" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="S23" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="T23" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.45">
@@ -2854,37 +2908,37 @@
         <v>78</v>
       </c>
       <c r="H24" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="I24" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s">
         <v>78</v>
       </c>
       <c r="M24" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N24" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O24" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q24" t="s">
         <v>78</v>
       </c>
       <c r="R24" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="S24" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="T24" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.45">
@@ -2904,37 +2958,37 @@
         <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="I25" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s">
         <v>78</v>
       </c>
       <c r="M25" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="O25" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q25" t="s">
         <v>78</v>
       </c>
       <c r="R25" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="S25" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="T25" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.45">
@@ -2954,37 +3008,37 @@
         <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s">
         <v>78</v>
       </c>
       <c r="M26" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="O26" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q26" t="s">
         <v>78</v>
       </c>
       <c r="R26" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="S26" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="T26" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.45">
@@ -3004,37 +3058,37 @@
         <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s">
         <v>78</v>
       </c>
       <c r="M27" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N27" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="O27" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q27" t="s">
         <v>78</v>
       </c>
       <c r="R27" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="S27" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="T27" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.45">
@@ -3054,37 +3108,37 @@
         <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s">
         <v>78</v>
       </c>
       <c r="M28" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N28" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="O28" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q28" t="s">
         <v>78</v>
       </c>
       <c r="R28" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="S28" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="T28" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.45">
@@ -3104,37 +3158,37 @@
         <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L29" t="s">
         <v>78</v>
       </c>
       <c r="M29" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N29" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O29" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q29" t="s">
         <v>78</v>
       </c>
       <c r="R29" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="S29" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="T29" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.45">
@@ -3154,37 +3208,37 @@
         <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="J30" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L30" t="s">
         <v>78</v>
       </c>
       <c r="M30" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="N30" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="O30" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q30" t="s">
         <v>78</v>
       </c>
       <c r="R30" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="S30" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="T30" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.45">
@@ -3204,37 +3258,37 @@
         <v>78</v>
       </c>
       <c r="H31" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="I31" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="J31" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L31" t="s">
         <v>78</v>
       </c>
       <c r="M31" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N31" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O31" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q31" t="s">
         <v>78</v>
       </c>
       <c r="R31" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="S31" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="T31" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.45">
@@ -3254,37 +3308,37 @@
         <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="I32" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="J32" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L32" t="s">
         <v>78</v>
       </c>
       <c r="M32" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="N32" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="O32" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q32" t="s">
         <v>78</v>
       </c>
       <c r="R32" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="S32" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="T32" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.45">
@@ -3304,37 +3358,37 @@
         <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="I33" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="J33" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L33" t="s">
         <v>78</v>
       </c>
       <c r="M33" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="N33" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q33" t="s">
         <v>78</v>
       </c>
       <c r="R33" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="S33" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="T33" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.45">
@@ -3354,37 +3408,37 @@
         <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="I34" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="J34" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L34" t="s">
         <v>78</v>
       </c>
       <c r="M34" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="N34" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O34" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q34" t="s">
         <v>78</v>
       </c>
       <c r="R34" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="S34" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="T34" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.45">
@@ -3404,37 +3458,37 @@
         <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="I35" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="J35" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s">
         <v>78</v>
       </c>
       <c r="M35" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="N35" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="O35" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q35" t="s">
         <v>78</v>
       </c>
       <c r="R35" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="S35" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="T35" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.45">
@@ -3454,37 +3508,37 @@
         <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="I36" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="J36" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s">
         <v>78</v>
       </c>
       <c r="M36" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N36" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="O36" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q36" t="s">
         <v>78</v>
       </c>
       <c r="R36" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="S36" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="T36" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.45">
@@ -3504,37 +3558,37 @@
         <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="I37" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="J37" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s">
         <v>78</v>
       </c>
       <c r="M37" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N37" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O37" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q37" t="s">
         <v>78</v>
       </c>
       <c r="R37" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="S37" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="T37" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.45">
@@ -3554,37 +3608,37 @@
         <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="I38" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="J38" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s">
         <v>78</v>
       </c>
       <c r="M38" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N38" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="O38" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q38" t="s">
         <v>78</v>
       </c>
       <c r="R38" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="S38" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="T38" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.45">
@@ -3604,37 +3658,37 @@
         <v>78</v>
       </c>
       <c r="H39" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="I39" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="J39" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L39" t="s">
         <v>78</v>
       </c>
       <c r="M39" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="N39" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="O39" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q39" t="s">
         <v>78</v>
       </c>
       <c r="R39" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="S39" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="T39" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.45">
@@ -3654,37 +3708,37 @@
         <v>78</v>
       </c>
       <c r="H40" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="I40" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="J40" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L40" t="s">
         <v>78</v>
       </c>
       <c r="M40" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="N40" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="O40" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q40" t="s">
         <v>78</v>
       </c>
       <c r="R40" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="S40" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="T40" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.45">
@@ -3704,37 +3758,37 @@
         <v>78</v>
       </c>
       <c r="H41" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="I41" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="J41" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s">
         <v>78</v>
       </c>
       <c r="M41" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="N41" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="O41" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q41" t="s">
         <v>78</v>
       </c>
       <c r="R41" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
       <c r="S41" t="s">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="T41" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.45">
@@ -3754,37 +3808,37 @@
         <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="J42" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L42" t="s">
         <v>78</v>
       </c>
       <c r="M42" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="N42" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="O42" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q42" t="s">
         <v>78</v>
       </c>
       <c r="R42" t="s">
-        <v>122</v>
+        <v>401</v>
       </c>
       <c r="S42" t="s">
-        <v>123</v>
+        <v>402</v>
       </c>
       <c r="T42" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.45">
@@ -3804,37 +3858,37 @@
         <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="I43" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="J43" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L43" t="s">
         <v>78</v>
       </c>
       <c r="M43" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="N43" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="O43" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q43" t="s">
         <v>78</v>
       </c>
       <c r="R43" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="S43" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="T43" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.45">
@@ -3854,37 +3908,37 @@
         <v>78</v>
       </c>
       <c r="H44" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="I44" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="J44" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L44" t="s">
         <v>78</v>
       </c>
       <c r="M44" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="N44" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="O44" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q44" t="s">
         <v>78</v>
       </c>
       <c r="R44" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="S44" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="T44" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.45">
@@ -3904,37 +3958,37 @@
         <v>78</v>
       </c>
       <c r="H45" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="I45" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="J45" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L45" t="s">
         <v>78</v>
       </c>
       <c r="M45" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="N45" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="O45" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q45" t="s">
         <v>78</v>
       </c>
       <c r="R45" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="S45" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="T45" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.45">
@@ -3954,37 +4008,37 @@
         <v>78</v>
       </c>
       <c r="H46" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="I46" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="J46" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L46" t="s">
         <v>78</v>
       </c>
       <c r="M46" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N46" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="O46" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q46" t="s">
         <v>78</v>
       </c>
       <c r="R46" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="S46" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="T46" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.45">
@@ -4004,37 +4058,37 @@
         <v>78</v>
       </c>
       <c r="H47" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="I47" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="J47" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L47" t="s">
         <v>78</v>
       </c>
       <c r="M47" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="N47" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="O47" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q47" t="s">
         <v>78</v>
       </c>
       <c r="R47" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="S47" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="T47" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.45">
@@ -4054,37 +4108,37 @@
         <v>78</v>
       </c>
       <c r="H48" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="I48" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="J48" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L48" t="s">
         <v>78</v>
       </c>
       <c r="M48" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="N48" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="O48" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q48" t="s">
         <v>78</v>
       </c>
       <c r="R48" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="S48" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="T48" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.45">
@@ -4100,29 +4154,41 @@
       <c r="E49" t="s">
         <v>81</v>
       </c>
+      <c r="G49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s">
+        <v>271</v>
+      </c>
+      <c r="I49" t="s">
+        <v>272</v>
+      </c>
+      <c r="J49" t="s">
+        <v>196</v>
+      </c>
       <c r="L49" t="s">
         <v>78</v>
       </c>
       <c r="M49" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="N49" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="O49" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q49" t="s">
         <v>78</v>
       </c>
       <c r="R49" t="s">
-        <v>393</v>
+        <v>257</v>
       </c>
       <c r="S49" t="s">
-        <v>394</v>
+        <v>258</v>
       </c>
       <c r="T49" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.45">
@@ -4138,29 +4204,41 @@
       <c r="E50" t="s">
         <v>81</v>
       </c>
+      <c r="G50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s">
+        <v>273</v>
+      </c>
+      <c r="I50" t="s">
+        <v>274</v>
+      </c>
+      <c r="J50" t="s">
+        <v>196</v>
+      </c>
       <c r="L50" t="s">
         <v>78</v>
       </c>
       <c r="M50" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="N50" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O50" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q50" t="s">
         <v>78</v>
       </c>
       <c r="R50" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="S50" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="T50" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.45">
@@ -4176,29 +4254,41 @@
       <c r="E51" t="s">
         <v>81</v>
       </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s">
+        <v>275</v>
+      </c>
+      <c r="I51" t="s">
+        <v>276</v>
+      </c>
+      <c r="J51" t="s">
+        <v>196</v>
+      </c>
       <c r="L51" t="s">
         <v>78</v>
       </c>
       <c r="M51" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N51" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="O51" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q51" t="s">
         <v>78</v>
       </c>
       <c r="R51" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="S51" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="T51" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.45">
@@ -4214,29 +4304,41 @@
       <c r="E52" t="s">
         <v>81</v>
       </c>
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s">
+        <v>277</v>
+      </c>
+      <c r="I52" t="s">
+        <v>278</v>
+      </c>
+      <c r="J52" t="s">
+        <v>196</v>
+      </c>
       <c r="L52" t="s">
         <v>78</v>
       </c>
       <c r="M52" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="N52" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="O52" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q52" t="s">
         <v>78</v>
       </c>
       <c r="R52" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="S52" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="T52" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.45">
@@ -4252,29 +4354,41 @@
       <c r="E53" t="s">
         <v>81</v>
       </c>
+      <c r="G53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s">
+        <v>279</v>
+      </c>
+      <c r="I53" t="s">
+        <v>280</v>
+      </c>
+      <c r="J53" t="s">
+        <v>196</v>
+      </c>
       <c r="L53" t="s">
         <v>78</v>
       </c>
       <c r="M53" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="N53" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O53" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q53" t="s">
         <v>78</v>
       </c>
       <c r="R53" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="S53" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="T53" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.45">
@@ -4290,29 +4404,41 @@
       <c r="E54" t="s">
         <v>81</v>
       </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s">
+        <v>281</v>
+      </c>
+      <c r="I54" t="s">
+        <v>282</v>
+      </c>
+      <c r="J54" t="s">
+        <v>196</v>
+      </c>
       <c r="L54" t="s">
         <v>78</v>
       </c>
       <c r="M54" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="N54" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="O54" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q54" t="s">
         <v>78</v>
       </c>
       <c r="R54" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="S54" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="T54" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.45">
@@ -4328,29 +4454,41 @@
       <c r="E55" t="s">
         <v>81</v>
       </c>
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s">
+        <v>283</v>
+      </c>
+      <c r="I55" t="s">
+        <v>284</v>
+      </c>
+      <c r="J55" t="s">
+        <v>196</v>
+      </c>
       <c r="L55" t="s">
         <v>78</v>
       </c>
       <c r="M55" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="N55" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="O55" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q55" t="s">
         <v>78</v>
       </c>
       <c r="R55" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="S55" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="T55" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.45">
@@ -4366,29 +4504,41 @@
       <c r="E56" t="s">
         <v>81</v>
       </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s">
+        <v>285</v>
+      </c>
+      <c r="I56" t="s">
+        <v>286</v>
+      </c>
+      <c r="J56" t="s">
+        <v>196</v>
+      </c>
       <c r="L56" t="s">
         <v>78</v>
       </c>
       <c r="M56" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="N56" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="O56" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q56" t="s">
         <v>78</v>
       </c>
       <c r="R56" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="S56" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="T56" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.45">
@@ -4404,29 +4554,41 @@
       <c r="E57" t="s">
         <v>81</v>
       </c>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s">
+        <v>287</v>
+      </c>
+      <c r="I57" t="s">
+        <v>288</v>
+      </c>
+      <c r="J57" t="s">
+        <v>196</v>
+      </c>
       <c r="L57" t="s">
         <v>78</v>
       </c>
       <c r="M57" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="N57" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="O57" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q57" t="s">
         <v>78</v>
       </c>
       <c r="R57" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="S57" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="T57" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.45">
@@ -4442,29 +4604,41 @@
       <c r="E58" t="s">
         <v>81</v>
       </c>
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s">
+        <v>289</v>
+      </c>
+      <c r="I58" t="s">
+        <v>290</v>
+      </c>
+      <c r="J58" t="s">
+        <v>196</v>
+      </c>
       <c r="L58" t="s">
         <v>78</v>
       </c>
       <c r="M58" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="N58" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="O58" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q58" t="s">
         <v>78</v>
       </c>
       <c r="R58" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="S58" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="T58" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.45">
@@ -4480,29 +4654,41 @@
       <c r="E59" t="s">
         <v>81</v>
       </c>
+      <c r="G59" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s">
+        <v>291</v>
+      </c>
+      <c r="I59" t="s">
+        <v>292</v>
+      </c>
+      <c r="J59" t="s">
+        <v>196</v>
+      </c>
       <c r="L59" t="s">
         <v>78</v>
       </c>
       <c r="M59" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="N59" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="O59" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q59" t="s">
         <v>78</v>
       </c>
       <c r="R59" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="S59" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="T59" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.45">
@@ -4518,29 +4704,41 @@
       <c r="E60" t="s">
         <v>81</v>
       </c>
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s">
+        <v>293</v>
+      </c>
+      <c r="I60" t="s">
+        <v>294</v>
+      </c>
+      <c r="J60" t="s">
+        <v>196</v>
+      </c>
       <c r="L60" t="s">
         <v>78</v>
       </c>
       <c r="M60" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="N60" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O60" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q60" t="s">
         <v>78</v>
       </c>
       <c r="R60" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="S60" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="T60" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.45">
@@ -4556,29 +4754,41 @@
       <c r="E61" t="s">
         <v>81</v>
       </c>
+      <c r="G61" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s">
+        <v>295</v>
+      </c>
+      <c r="I61" t="s">
+        <v>296</v>
+      </c>
+      <c r="J61" t="s">
+        <v>196</v>
+      </c>
       <c r="L61" t="s">
         <v>78</v>
       </c>
       <c r="M61" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N61" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="O61" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q61" t="s">
         <v>78</v>
       </c>
       <c r="R61" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="S61" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="T61" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.45">
@@ -4594,29 +4804,41 @@
       <c r="E62" t="s">
         <v>81</v>
       </c>
+      <c r="G62" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s">
+        <v>297</v>
+      </c>
+      <c r="I62" t="s">
+        <v>298</v>
+      </c>
+      <c r="J62" t="s">
+        <v>196</v>
+      </c>
       <c r="L62" t="s">
         <v>78</v>
       </c>
       <c r="M62" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="N62" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="O62" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q62" t="s">
         <v>78</v>
       </c>
       <c r="R62" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="S62" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="T62" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.45">
@@ -4632,29 +4854,41 @@
       <c r="E63" t="s">
         <v>81</v>
       </c>
+      <c r="G63" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s">
+        <v>299</v>
+      </c>
+      <c r="I63" t="s">
+        <v>300</v>
+      </c>
+      <c r="J63" t="s">
+        <v>196</v>
+      </c>
       <c r="L63" t="s">
         <v>78</v>
       </c>
       <c r="M63" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="N63" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="O63" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q63" t="s">
         <v>78</v>
       </c>
       <c r="R63" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="S63" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="T63" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.45">
@@ -4670,29 +4904,41 @@
       <c r="E64" t="s">
         <v>81</v>
       </c>
+      <c r="G64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s">
+        <v>301</v>
+      </c>
+      <c r="I64" t="s">
+        <v>302</v>
+      </c>
+      <c r="J64" t="s">
+        <v>196</v>
+      </c>
       <c r="L64" t="s">
         <v>78</v>
       </c>
       <c r="M64" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="N64" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="O64" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q64" t="s">
         <v>78</v>
       </c>
       <c r="R64" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="S64" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="T64" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.45">
@@ -4708,29 +4954,41 @@
       <c r="E65" t="s">
         <v>81</v>
       </c>
+      <c r="G65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s">
+        <v>303</v>
+      </c>
+      <c r="I65" t="s">
+        <v>304</v>
+      </c>
+      <c r="J65" t="s">
+        <v>196</v>
+      </c>
       <c r="L65" t="s">
         <v>78</v>
       </c>
       <c r="M65" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="N65" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="O65" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q65" t="s">
         <v>78</v>
       </c>
       <c r="R65" t="s">
-        <v>300</v>
+        <v>435</v>
       </c>
       <c r="S65" t="s">
-        <v>301</v>
+        <v>436</v>
       </c>
       <c r="T65" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.45">
@@ -4746,29 +5004,41 @@
       <c r="E66" t="s">
         <v>81</v>
       </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s">
+        <v>305</v>
+      </c>
+      <c r="I66" t="s">
+        <v>306</v>
+      </c>
+      <c r="J66" t="s">
+        <v>196</v>
+      </c>
       <c r="L66" t="s">
         <v>78</v>
       </c>
       <c r="M66" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N66" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="O66" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q66" t="s">
         <v>78</v>
       </c>
       <c r="R66" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="S66" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="T66" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.45">
@@ -4784,627 +5054,603 @@
       <c r="E67" t="s">
         <v>81</v>
       </c>
+      <c r="G67" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s">
+        <v>102</v>
+      </c>
+      <c r="I67" t="s">
+        <v>103</v>
+      </c>
+      <c r="J67" t="s">
+        <v>196</v>
+      </c>
       <c r="L67" t="s">
         <v>78</v>
       </c>
       <c r="M67" t="s">
+        <v>182</v>
+      </c>
+      <c r="N67" t="s">
+        <v>183</v>
+      </c>
+      <c r="O67" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>78</v>
+      </c>
+      <c r="R67" t="s">
+        <v>439</v>
+      </c>
+      <c r="S67" t="s">
+        <v>440</v>
+      </c>
+      <c r="T67" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>307</v>
+      </c>
+      <c r="I68" t="s">
+        <v>308</v>
+      </c>
+      <c r="J68" t="s">
+        <v>196</v>
+      </c>
+      <c r="L68" t="s">
+        <v>78</v>
+      </c>
+      <c r="M68" t="s">
+        <v>184</v>
+      </c>
+      <c r="N68" t="s">
+        <v>185</v>
+      </c>
+      <c r="O68" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>78</v>
+      </c>
+      <c r="R68" t="s">
+        <v>441</v>
+      </c>
+      <c r="S68" t="s">
+        <v>442</v>
+      </c>
+      <c r="T68" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="G69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s">
+        <v>309</v>
+      </c>
+      <c r="I69" t="s">
+        <v>310</v>
+      </c>
+      <c r="J69" t="s">
+        <v>196</v>
+      </c>
+      <c r="L69" t="s">
+        <v>78</v>
+      </c>
+      <c r="M69" t="s">
+        <v>186</v>
+      </c>
+      <c r="N69" t="s">
+        <v>187</v>
+      </c>
+      <c r="O69" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>78</v>
+      </c>
+      <c r="R69" t="s">
+        <v>443</v>
+      </c>
+      <c r="S69" t="s">
+        <v>444</v>
+      </c>
+      <c r="T69" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s">
+        <v>311</v>
+      </c>
+      <c r="I70" t="s">
+        <v>312</v>
+      </c>
+      <c r="J70" t="s">
+        <v>196</v>
+      </c>
+      <c r="L70" t="s">
+        <v>78</v>
+      </c>
+      <c r="M70" t="s">
+        <v>188</v>
+      </c>
+      <c r="N70" t="s">
+        <v>189</v>
+      </c>
+      <c r="O70" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>78</v>
+      </c>
+      <c r="R70" t="s">
+        <v>445</v>
+      </c>
+      <c r="S70" t="s">
+        <v>446</v>
+      </c>
+      <c r="T70" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="G71" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s">
+        <v>313</v>
+      </c>
+      <c r="I71" t="s">
+        <v>314</v>
+      </c>
+      <c r="J71" t="s">
+        <v>196</v>
+      </c>
+      <c r="L71" t="s">
+        <v>78</v>
+      </c>
+      <c r="M71" t="s">
+        <v>190</v>
+      </c>
+      <c r="N71" t="s">
+        <v>191</v>
+      </c>
+      <c r="O71" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>78</v>
+      </c>
+      <c r="R71" t="s">
+        <v>447</v>
+      </c>
+      <c r="S71" t="s">
+        <v>448</v>
+      </c>
+      <c r="T71" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s">
+        <v>315</v>
+      </c>
+      <c r="I72" t="s">
+        <v>316</v>
+      </c>
+      <c r="J72" t="s">
+        <v>196</v>
+      </c>
+      <c r="L72" t="s">
+        <v>78</v>
+      </c>
+      <c r="M72" t="s">
         <v>192</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N72" t="s">
         <v>193</v>
       </c>
-      <c r="O67" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>78</v>
-      </c>
-      <c r="R67" t="s">
-        <v>421</v>
-      </c>
-      <c r="S67" t="s">
-        <v>422</v>
-      </c>
-      <c r="T67" t="s">
+      <c r="O72" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>78</v>
+      </c>
+      <c r="R72" t="s">
+        <v>259</v>
+      </c>
+      <c r="S72" t="s">
+        <v>260</v>
+      </c>
+      <c r="T72" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s">
+        <v>317</v>
+      </c>
+      <c r="I73" t="s">
+        <v>318</v>
+      </c>
+      <c r="J73" t="s">
+        <v>196</v>
+      </c>
+      <c r="L73" t="s">
+        <v>78</v>
+      </c>
+      <c r="M73" t="s">
+        <v>340</v>
+      </c>
+      <c r="N73" t="s">
+        <v>341</v>
+      </c>
+      <c r="O73" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>78</v>
+      </c>
+      <c r="R73" t="s">
+        <v>449</v>
+      </c>
+      <c r="S73" t="s">
+        <v>450</v>
+      </c>
+      <c r="T73" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="G74" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" t="s">
+        <v>319</v>
+      </c>
+      <c r="I74" t="s">
+        <v>320</v>
+      </c>
+      <c r="J74" t="s">
+        <v>196</v>
+      </c>
+      <c r="L74" t="s">
+        <v>78</v>
+      </c>
+      <c r="M74" t="s">
+        <v>194</v>
+      </c>
+      <c r="N74" t="s">
+        <v>195</v>
+      </c>
+      <c r="O74" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>78</v>
+      </c>
+      <c r="R74" t="s">
+        <v>451</v>
+      </c>
+      <c r="S74" t="s">
+        <v>452</v>
+      </c>
+      <c r="T74" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="G75" t="s">
+        <v>78</v>
+      </c>
+      <c r="H75" t="s">
+        <v>321</v>
+      </c>
+      <c r="I75" t="s">
+        <v>322</v>
+      </c>
+      <c r="J75" t="s">
+        <v>196</v>
+      </c>
+      <c r="L75" t="s">
+        <v>78</v>
+      </c>
+      <c r="M75" t="s">
+        <v>197</v>
+      </c>
+      <c r="N75" t="s">
+        <v>198</v>
+      </c>
+      <c r="O75" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>78</v>
+      </c>
+      <c r="R75" t="s">
+        <v>453</v>
+      </c>
+      <c r="S75" t="s">
+        <v>454</v>
+      </c>
+      <c r="T75" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="G76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H76" t="s">
+        <v>323</v>
+      </c>
+      <c r="I76" t="s">
+        <v>324</v>
+      </c>
+      <c r="J76" t="s">
+        <v>196</v>
+      </c>
+      <c r="L76" t="s">
+        <v>78</v>
+      </c>
+      <c r="M76" t="s">
+        <v>199</v>
+      </c>
+      <c r="N76" t="s">
+        <v>200</v>
+      </c>
+      <c r="O76" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>78</v>
+      </c>
+      <c r="R76" t="s">
+        <v>455</v>
+      </c>
+      <c r="S76" t="s">
+        <v>456</v>
+      </c>
+      <c r="T76" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="G77" t="s">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s">
+        <v>325</v>
+      </c>
+      <c r="I77" t="s">
+        <v>326</v>
+      </c>
+      <c r="J77" t="s">
+        <v>196</v>
+      </c>
+      <c r="L77" t="s">
+        <v>78</v>
+      </c>
+      <c r="M77" t="s">
+        <v>201</v>
+      </c>
+      <c r="N77" t="s">
+        <v>202</v>
+      </c>
+      <c r="O77" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>78</v>
+      </c>
+      <c r="R77" t="s">
+        <v>457</v>
+      </c>
+      <c r="S77" t="s">
+        <v>458</v>
+      </c>
+      <c r="T77" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="G78" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s">
+        <v>327</v>
+      </c>
+      <c r="I78" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" t="s">
-        <v>194</v>
-      </c>
-      <c r="D68" t="s">
-        <v>195</v>
-      </c>
-      <c r="E68" t="s">
-        <v>81</v>
-      </c>
-      <c r="L68" t="s">
-        <v>78</v>
-      </c>
-      <c r="M68" t="s">
-        <v>194</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-      <c r="O68" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>78</v>
-      </c>
-      <c r="R68" t="s">
-        <v>423</v>
-      </c>
-      <c r="S68" t="s">
-        <v>424</v>
-      </c>
-      <c r="T68" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="J78" t="s">
         <v>196</v>
       </c>
-      <c r="D69" t="s">
-        <v>197</v>
-      </c>
-      <c r="E69" t="s">
-        <v>81</v>
-      </c>
-      <c r="L69" t="s">
-        <v>78</v>
-      </c>
-      <c r="M69" t="s">
-        <v>196</v>
-      </c>
-      <c r="N69" t="s">
-        <v>197</v>
-      </c>
-      <c r="O69" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>78</v>
-      </c>
-      <c r="R69" t="s">
-        <v>425</v>
-      </c>
-      <c r="S69" t="s">
-        <v>426</v>
-      </c>
-      <c r="T69" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="L78" t="s">
+        <v>78</v>
+      </c>
+      <c r="M78" t="s">
+        <v>203</v>
+      </c>
+      <c r="N78" t="s">
+        <v>204</v>
+      </c>
+      <c r="O78" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>78</v>
+      </c>
+      <c r="R78" t="s">
+        <v>142</v>
+      </c>
+      <c r="S78" t="s">
+        <v>143</v>
+      </c>
+      <c r="T78" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="L79" t="s">
+        <v>78</v>
+      </c>
+      <c r="M79" t="s">
+        <v>205</v>
+      </c>
+      <c r="N79" t="s">
+        <v>206</v>
+      </c>
+      <c r="O79" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>78</v>
+      </c>
+      <c r="R79" t="s">
+        <v>459</v>
+      </c>
+      <c r="S79" t="s">
+        <v>460</v>
+      </c>
+      <c r="T79" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="L80" t="s">
+        <v>78</v>
+      </c>
+      <c r="M80" t="s">
+        <v>207</v>
+      </c>
+      <c r="N80" t="s">
+        <v>208</v>
+      </c>
+      <c r="O80" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>78</v>
+      </c>
+      <c r="R80" t="s">
+        <v>209</v>
+      </c>
+      <c r="S80" t="s">
+        <v>210</v>
+      </c>
+      <c r="T80" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L81" t="s">
+        <v>78</v>
+      </c>
+      <c r="M81" t="s">
+        <v>209</v>
+      </c>
+      <c r="N81" t="s">
+        <v>210</v>
+      </c>
+      <c r="O81" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>78</v>
+      </c>
+      <c r="R81" t="s">
+        <v>319</v>
+      </c>
+      <c r="S81" t="s">
+        <v>320</v>
+      </c>
+      <c r="T81" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L82" t="s">
+        <v>78</v>
+      </c>
+      <c r="M82" t="s">
+        <v>211</v>
+      </c>
+      <c r="N82" t="s">
+        <v>212</v>
+      </c>
+      <c r="O82" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>78</v>
+      </c>
+      <c r="R82" t="s">
         <v>199</v>
       </c>
-      <c r="E70" t="s">
-        <v>81</v>
-      </c>
-      <c r="L70" t="s">
-        <v>78</v>
-      </c>
-      <c r="M70" t="s">
-        <v>198</v>
-      </c>
-      <c r="N70" t="s">
-        <v>199</v>
-      </c>
-      <c r="O70" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>78</v>
-      </c>
-      <c r="R70" t="s">
-        <v>427</v>
-      </c>
-      <c r="S70" t="s">
-        <v>428</v>
-      </c>
-      <c r="T70" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="S82" t="s">
         <v>200</v>
       </c>
-      <c r="D71" t="s">
-        <v>201</v>
-      </c>
-      <c r="E71" t="s">
-        <v>81</v>
-      </c>
-      <c r="L71" t="s">
-        <v>78</v>
-      </c>
-      <c r="M71" t="s">
-        <v>200</v>
-      </c>
-      <c r="N71" t="s">
-        <v>201</v>
-      </c>
-      <c r="O71" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>78</v>
-      </c>
-      <c r="R71" t="s">
-        <v>429</v>
-      </c>
-      <c r="S71" t="s">
-        <v>430</v>
-      </c>
-      <c r="T71" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" t="s">
-        <v>203</v>
-      </c>
-      <c r="E72" t="s">
-        <v>81</v>
-      </c>
-      <c r="L72" t="s">
-        <v>78</v>
-      </c>
-      <c r="M72" t="s">
-        <v>202</v>
-      </c>
-      <c r="N72" t="s">
-        <v>203</v>
-      </c>
-      <c r="O72" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>78</v>
-      </c>
-      <c r="R72" t="s">
-        <v>431</v>
-      </c>
-      <c r="S72" t="s">
-        <v>432</v>
-      </c>
-      <c r="T72" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" t="s">
-        <v>204</v>
-      </c>
-      <c r="D73" t="s">
-        <v>205</v>
-      </c>
-      <c r="E73" t="s">
-        <v>81</v>
-      </c>
-      <c r="L73" t="s">
-        <v>78</v>
-      </c>
-      <c r="M73" t="s">
-        <v>204</v>
-      </c>
-      <c r="N73" t="s">
-        <v>205</v>
-      </c>
-      <c r="O73" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>78</v>
-      </c>
-      <c r="R73" t="s">
-        <v>433</v>
-      </c>
-      <c r="S73" t="s">
-        <v>434</v>
-      </c>
-      <c r="T73" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B74" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" t="s">
-        <v>206</v>
-      </c>
-      <c r="D74" t="s">
-        <v>207</v>
-      </c>
-      <c r="E74" t="s">
-        <v>81</v>
-      </c>
-      <c r="L74" t="s">
-        <v>78</v>
-      </c>
-      <c r="M74" t="s">
-        <v>206</v>
-      </c>
-      <c r="N74" t="s">
-        <v>207</v>
-      </c>
-      <c r="O74" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>78</v>
-      </c>
-      <c r="R74" t="s">
-        <v>435</v>
-      </c>
-      <c r="S74" t="s">
-        <v>436</v>
-      </c>
-      <c r="T74" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" t="s">
-        <v>208</v>
-      </c>
-      <c r="D75" t="s">
-        <v>209</v>
-      </c>
-      <c r="E75" t="s">
-        <v>81</v>
-      </c>
-      <c r="L75" t="s">
-        <v>78</v>
-      </c>
-      <c r="M75" t="s">
-        <v>208</v>
-      </c>
-      <c r="N75" t="s">
-        <v>209</v>
-      </c>
-      <c r="O75" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>78</v>
-      </c>
-      <c r="R75" t="s">
-        <v>437</v>
-      </c>
-      <c r="S75" t="s">
-        <v>438</v>
-      </c>
-      <c r="T75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B76" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" t="s">
-        <v>210</v>
-      </c>
-      <c r="D76" t="s">
-        <v>211</v>
-      </c>
-      <c r="E76" t="s">
-        <v>81</v>
-      </c>
-      <c r="L76" t="s">
-        <v>78</v>
-      </c>
-      <c r="M76" t="s">
-        <v>210</v>
-      </c>
-      <c r="N76" t="s">
-        <v>211</v>
-      </c>
-      <c r="O76" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>78</v>
-      </c>
-      <c r="R76" t="s">
-        <v>439</v>
-      </c>
-      <c r="S76" t="s">
-        <v>440</v>
-      </c>
-      <c r="T76" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" t="s">
-        <v>212</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="T82" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L83" t="s">
+        <v>78</v>
+      </c>
+      <c r="M83" t="s">
         <v>213</v>
       </c>
-      <c r="E77" t="s">
-        <v>81</v>
-      </c>
-      <c r="L77" t="s">
-        <v>78</v>
-      </c>
-      <c r="M77" t="s">
-        <v>212</v>
-      </c>
-      <c r="N77" t="s">
-        <v>213</v>
-      </c>
-      <c r="O77" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>78</v>
-      </c>
-      <c r="R77" t="s">
-        <v>441</v>
-      </c>
-      <c r="S77" t="s">
-        <v>442</v>
-      </c>
-      <c r="T77" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B78" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="N83" t="s">
         <v>214</v>
       </c>
-      <c r="D78" t="s">
+      <c r="O83" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>78</v>
+      </c>
+      <c r="R83" t="s">
+        <v>461</v>
+      </c>
+      <c r="S83" t="s">
+        <v>462</v>
+      </c>
+      <c r="T83" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="84" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L84" t="s">
+        <v>78</v>
+      </c>
+      <c r="M84" t="s">
         <v>215</v>
       </c>
-      <c r="E78" t="s">
-        <v>81</v>
-      </c>
-      <c r="L78" t="s">
-        <v>78</v>
-      </c>
-      <c r="M78" t="s">
-        <v>214</v>
-      </c>
-      <c r="N78" t="s">
-        <v>215</v>
-      </c>
-      <c r="O78" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>78</v>
-      </c>
-      <c r="R78" t="s">
-        <v>158</v>
-      </c>
-      <c r="S78" t="s">
-        <v>159</v>
-      </c>
-      <c r="T78" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B79" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="N84" t="s">
         <v>216</v>
       </c>
-      <c r="D79" t="s">
-        <v>217</v>
-      </c>
-      <c r="E79" t="s">
-        <v>81</v>
-      </c>
-      <c r="L79" t="s">
-        <v>78</v>
-      </c>
-      <c r="M79" t="s">
-        <v>216</v>
-      </c>
-      <c r="N79" t="s">
-        <v>217</v>
-      </c>
-      <c r="O79" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>78</v>
-      </c>
-      <c r="R79" t="s">
-        <v>443</v>
-      </c>
-      <c r="S79" t="s">
-        <v>444</v>
-      </c>
-      <c r="T79" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B80" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" t="s">
-        <v>218</v>
-      </c>
-      <c r="D80" t="s">
-        <v>219</v>
-      </c>
-      <c r="E80" t="s">
-        <v>81</v>
-      </c>
-      <c r="L80" t="s">
-        <v>78</v>
-      </c>
-      <c r="M80" t="s">
-        <v>218</v>
-      </c>
-      <c r="N80" t="s">
-        <v>219</v>
-      </c>
-      <c r="O80" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>78</v>
-      </c>
-      <c r="R80" t="s">
-        <v>445</v>
-      </c>
-      <c r="S80" t="s">
-        <v>446</v>
-      </c>
-      <c r="T80" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B81" t="s">
-        <v>78</v>
-      </c>
-      <c r="C81" t="s">
-        <v>220</v>
-      </c>
-      <c r="D81" t="s">
-        <v>221</v>
-      </c>
-      <c r="E81" t="s">
-        <v>81</v>
-      </c>
-      <c r="L81" t="s">
-        <v>78</v>
-      </c>
-      <c r="M81" t="s">
-        <v>220</v>
-      </c>
-      <c r="N81" t="s">
-        <v>221</v>
-      </c>
-      <c r="O81" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>78</v>
-      </c>
-      <c r="R81" t="s">
-        <v>447</v>
-      </c>
-      <c r="S81" t="s">
-        <v>448</v>
-      </c>
-      <c r="T81" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L82" t="s">
-        <v>78</v>
-      </c>
-      <c r="M82" t="s">
-        <v>300</v>
-      </c>
-      <c r="N82" t="s">
-        <v>301</v>
-      </c>
-      <c r="O82" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>78</v>
-      </c>
-      <c r="R82" t="s">
-        <v>222</v>
-      </c>
-      <c r="S82" t="s">
-        <v>223</v>
-      </c>
-      <c r="T82" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L83" t="s">
-        <v>78</v>
-      </c>
-      <c r="M83" t="s">
-        <v>302</v>
-      </c>
-      <c r="N83" t="s">
-        <v>303</v>
-      </c>
-      <c r="O83" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>78</v>
-      </c>
-      <c r="R83" t="s">
-        <v>190</v>
-      </c>
-      <c r="S83" t="s">
-        <v>191</v>
-      </c>
-      <c r="T83" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L84" t="s">
-        <v>78</v>
-      </c>
-      <c r="M84" t="s">
-        <v>304</v>
-      </c>
-      <c r="N84" t="s">
-        <v>305</v>
-      </c>
       <c r="O84" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q84" t="s">
         <v>78</v>
@@ -5416,319 +5662,319 @@
         <v>83</v>
       </c>
       <c r="T84" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.45">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" spans="12:20" x14ac:dyDescent="0.45">
       <c r="L85" t="s">
         <v>78</v>
       </c>
       <c r="M85" t="s">
+        <v>217</v>
+      </c>
+      <c r="N85" t="s">
+        <v>218</v>
+      </c>
+      <c r="O85" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>78</v>
+      </c>
+      <c r="R85" t="s">
+        <v>255</v>
+      </c>
+      <c r="S85" t="s">
+        <v>256</v>
+      </c>
+      <c r="T85" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="86" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L86" t="s">
+        <v>78</v>
+      </c>
+      <c r="M86" t="s">
+        <v>219</v>
+      </c>
+      <c r="N86" t="s">
+        <v>220</v>
+      </c>
+      <c r="O86" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>78</v>
+      </c>
+      <c r="R86" t="s">
+        <v>148</v>
+      </c>
+      <c r="S86" t="s">
+        <v>149</v>
+      </c>
+      <c r="T86" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L87" t="s">
+        <v>78</v>
+      </c>
+      <c r="M87" t="s">
+        <v>221</v>
+      </c>
+      <c r="N87" t="s">
         <v>222</v>
       </c>
-      <c r="N85" t="s">
+      <c r="O87" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>78</v>
+      </c>
+      <c r="R87" t="s">
+        <v>166</v>
+      </c>
+      <c r="S87" t="s">
+        <v>167</v>
+      </c>
+      <c r="T87" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L88" t="s">
+        <v>78</v>
+      </c>
+      <c r="M88" t="s">
         <v>223</v>
       </c>
-      <c r="O85" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>78</v>
-      </c>
-      <c r="R85" t="s">
-        <v>449</v>
-      </c>
-      <c r="S85" t="s">
-        <v>450</v>
-      </c>
-      <c r="T85" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L86" t="s">
-        <v>78</v>
-      </c>
-      <c r="M86" t="s">
+      <c r="N88" t="s">
+        <v>224</v>
+      </c>
+      <c r="O88" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>78</v>
+      </c>
+      <c r="R88" t="s">
+        <v>162</v>
+      </c>
+      <c r="S88" t="s">
+        <v>163</v>
+      </c>
+      <c r="T88" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L89" t="s">
+        <v>78</v>
+      </c>
+      <c r="M89" t="s">
         <v>225</v>
       </c>
-      <c r="N86" t="s">
+      <c r="N89" t="s">
         <v>226</v>
       </c>
-      <c r="O86" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>78</v>
-      </c>
-      <c r="R86" t="s">
-        <v>166</v>
-      </c>
-      <c r="S86" t="s">
-        <v>167</v>
-      </c>
-      <c r="T86" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L87" t="s">
-        <v>78</v>
-      </c>
-      <c r="M87" t="s">
+      <c r="O89" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>78</v>
+      </c>
+      <c r="R89" t="s">
+        <v>463</v>
+      </c>
+      <c r="S89" t="s">
+        <v>464</v>
+      </c>
+      <c r="T89" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="90" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L90" t="s">
+        <v>78</v>
+      </c>
+      <c r="M90" t="s">
         <v>227</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N90" t="s">
         <v>228</v>
       </c>
-      <c r="O87" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>78</v>
-      </c>
-      <c r="R87" t="s">
-        <v>186</v>
-      </c>
-      <c r="S87" t="s">
-        <v>187</v>
-      </c>
-      <c r="T87" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L88" t="s">
-        <v>78</v>
-      </c>
-      <c r="M88" t="s">
+      <c r="O90" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>78</v>
+      </c>
+      <c r="R90" t="s">
+        <v>465</v>
+      </c>
+      <c r="S90" t="s">
+        <v>466</v>
+      </c>
+      <c r="T90" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L91" t="s">
+        <v>78</v>
+      </c>
+      <c r="M91" t="s">
         <v>229</v>
       </c>
-      <c r="N88" t="s">
+      <c r="N91" t="s">
         <v>230</v>
       </c>
-      <c r="O88" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>78</v>
-      </c>
-      <c r="R88" t="s">
-        <v>182</v>
-      </c>
-      <c r="S88" t="s">
-        <v>183</v>
-      </c>
-      <c r="T88" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L89" t="s">
-        <v>78</v>
-      </c>
-      <c r="M89" t="s">
+      <c r="O91" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>78</v>
+      </c>
+      <c r="R91" t="s">
+        <v>467</v>
+      </c>
+      <c r="S91" t="s">
+        <v>468</v>
+      </c>
+      <c r="T91" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="92" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L92" t="s">
+        <v>78</v>
+      </c>
+      <c r="M92" t="s">
         <v>231</v>
       </c>
-      <c r="N89" t="s">
+      <c r="N92" t="s">
         <v>232</v>
       </c>
-      <c r="O89" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>78</v>
-      </c>
-      <c r="R89" t="s">
-        <v>451</v>
-      </c>
-      <c r="S89" t="s">
-        <v>452</v>
-      </c>
-      <c r="T89" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L90" t="s">
-        <v>78</v>
-      </c>
-      <c r="M90" t="s">
+      <c r="O92" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>78</v>
+      </c>
+      <c r="R92" t="s">
+        <v>469</v>
+      </c>
+      <c r="S92" t="s">
+        <v>470</v>
+      </c>
+      <c r="T92" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L93" t="s">
+        <v>78</v>
+      </c>
+      <c r="M93" t="s">
         <v>233</v>
       </c>
-      <c r="N90" t="s">
+      <c r="N93" t="s">
         <v>234</v>
       </c>
-      <c r="O90" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>78</v>
-      </c>
-      <c r="R90" t="s">
-        <v>453</v>
-      </c>
-      <c r="S90" t="s">
-        <v>454</v>
-      </c>
-      <c r="T90" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L91" t="s">
-        <v>78</v>
-      </c>
-      <c r="M91" t="s">
+      <c r="O93" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>78</v>
+      </c>
+      <c r="R93" t="s">
+        <v>471</v>
+      </c>
+      <c r="S93" t="s">
+        <v>472</v>
+      </c>
+      <c r="T93" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="94" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L94" t="s">
+        <v>78</v>
+      </c>
+      <c r="M94" t="s">
         <v>235</v>
       </c>
-      <c r="N91" t="s">
+      <c r="N94" t="s">
         <v>236</v>
       </c>
-      <c r="O91" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>78</v>
-      </c>
-      <c r="R91" t="s">
-        <v>455</v>
-      </c>
-      <c r="S91" t="s">
-        <v>456</v>
-      </c>
-      <c r="T91" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L92" t="s">
-        <v>78</v>
-      </c>
-      <c r="M92" t="s">
+      <c r="O94" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>78</v>
+      </c>
+      <c r="R94" t="s">
+        <v>473</v>
+      </c>
+      <c r="S94" t="s">
+        <v>474</v>
+      </c>
+      <c r="T94" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="95" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L95" t="s">
+        <v>78</v>
+      </c>
+      <c r="M95" t="s">
         <v>237</v>
       </c>
-      <c r="N92" t="s">
+      <c r="N95" t="s">
         <v>238</v>
       </c>
-      <c r="O92" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>78</v>
-      </c>
-      <c r="R92" t="s">
-        <v>457</v>
-      </c>
-      <c r="S92" t="s">
-        <v>458</v>
-      </c>
-      <c r="T92" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L93" t="s">
-        <v>78</v>
-      </c>
-      <c r="M93" t="s">
+      <c r="O95" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>78</v>
+      </c>
+      <c r="R95" t="s">
+        <v>475</v>
+      </c>
+      <c r="S95" t="s">
+        <v>476</v>
+      </c>
+      <c r="T95" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="96" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L96" t="s">
+        <v>78</v>
+      </c>
+      <c r="M96" t="s">
         <v>239</v>
       </c>
-      <c r="N93" t="s">
+      <c r="N96" t="s">
         <v>240</v>
       </c>
-      <c r="O93" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>78</v>
-      </c>
-      <c r="R93" t="s">
-        <v>459</v>
-      </c>
-      <c r="S93" t="s">
-        <v>460</v>
-      </c>
-      <c r="T93" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L94" t="s">
-        <v>78</v>
-      </c>
-      <c r="M94" t="s">
-        <v>241</v>
-      </c>
-      <c r="N94" t="s">
-        <v>242</v>
-      </c>
-      <c r="O94" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>78</v>
-      </c>
-      <c r="R94" t="s">
-        <v>461</v>
-      </c>
-      <c r="S94" t="s">
-        <v>462</v>
-      </c>
-      <c r="T94" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L95" t="s">
-        <v>78</v>
-      </c>
-      <c r="M95" t="s">
-        <v>243</v>
-      </c>
-      <c r="N95" t="s">
-        <v>244</v>
-      </c>
-      <c r="O95" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>78</v>
-      </c>
-      <c r="R95" t="s">
-        <v>463</v>
-      </c>
-      <c r="S95" t="s">
-        <v>464</v>
-      </c>
-      <c r="T95" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="L96" t="s">
-        <v>78</v>
-      </c>
-      <c r="M96" t="s">
-        <v>245</v>
-      </c>
-      <c r="N96" t="s">
-        <v>246</v>
-      </c>
       <c r="O96" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q96" t="s">
         <v>78</v>
       </c>
       <c r="R96" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="S96" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="T96" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="97" spans="12:20" x14ac:dyDescent="0.45">
@@ -5736,25 +5982,25 @@
         <v>78</v>
       </c>
       <c r="M97" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N97" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O97" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q97" t="s">
         <v>78</v>
       </c>
       <c r="R97" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="S97" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="T97" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" spans="12:20" x14ac:dyDescent="0.45">
@@ -5762,25 +6008,25 @@
         <v>78</v>
       </c>
       <c r="M98" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="N98" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="O98" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q98" t="s">
         <v>78</v>
       </c>
       <c r="R98" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="S98" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="T98" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="12:20" x14ac:dyDescent="0.45">
@@ -5788,25 +6034,25 @@
         <v>78</v>
       </c>
       <c r="M99" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N99" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O99" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q99" t="s">
         <v>78</v>
       </c>
       <c r="R99" t="s">
-        <v>96</v>
+        <v>483</v>
       </c>
       <c r="S99" t="s">
-        <v>97</v>
+        <v>484</v>
       </c>
       <c r="T99" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="12:20" x14ac:dyDescent="0.45">
@@ -5814,25 +6060,25 @@
         <v>78</v>
       </c>
       <c r="M100" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N100" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O100" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q100" t="s">
         <v>78</v>
       </c>
       <c r="R100" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="S100" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="T100" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="12:20" x14ac:dyDescent="0.45">
@@ -5840,25 +6086,25 @@
         <v>78</v>
       </c>
       <c r="M101" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="N101" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O101" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q101" t="s">
         <v>78</v>
       </c>
       <c r="R101" t="s">
-        <v>304</v>
+        <v>487</v>
       </c>
       <c r="S101" t="s">
-        <v>305</v>
+        <v>488</v>
       </c>
       <c r="T101" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="102" spans="12:20" x14ac:dyDescent="0.45">
@@ -5866,25 +6112,25 @@
         <v>78</v>
       </c>
       <c r="M102" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="N102" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="O102" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q102" t="s">
         <v>78</v>
       </c>
       <c r="R102" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="S102" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="T102" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103" spans="12:20" x14ac:dyDescent="0.45">
@@ -5892,25 +6138,25 @@
         <v>78</v>
       </c>
       <c r="M103" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N103" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O103" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q103" t="s">
         <v>78</v>
       </c>
       <c r="R103" t="s">
-        <v>110</v>
+        <v>491</v>
       </c>
       <c r="S103" t="s">
-        <v>111</v>
+        <v>492</v>
       </c>
       <c r="T103" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104" spans="12:20" x14ac:dyDescent="0.45">
@@ -5918,25 +6164,25 @@
         <v>78</v>
       </c>
       <c r="M104" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="N104" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="O104" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q104" t="s">
         <v>78</v>
       </c>
       <c r="R104" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="S104" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="T104" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="12:20" x14ac:dyDescent="0.45">
@@ -5944,25 +6190,25 @@
         <v>78</v>
       </c>
       <c r="M105" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="N105" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="O105" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q105" t="s">
         <v>78</v>
       </c>
       <c r="R105" t="s">
-        <v>204</v>
+        <v>495</v>
       </c>
       <c r="S105" t="s">
-        <v>205</v>
+        <v>496</v>
       </c>
       <c r="T105" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" spans="12:20" x14ac:dyDescent="0.45">
@@ -5970,25 +6216,25 @@
         <v>78</v>
       </c>
       <c r="M106" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="N106" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O106" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q106" t="s">
         <v>78</v>
       </c>
       <c r="R106" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="S106" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="T106" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107" spans="12:20" x14ac:dyDescent="0.45">
@@ -5996,25 +6242,25 @@
         <v>78</v>
       </c>
       <c r="M107" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N107" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O107" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q107" t="s">
         <v>78</v>
       </c>
       <c r="R107" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="S107" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="T107" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="12:20" x14ac:dyDescent="0.45">
@@ -6022,25 +6268,25 @@
         <v>78</v>
       </c>
       <c r="M108" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N108" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O108" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q108" t="s">
         <v>78</v>
       </c>
       <c r="R108" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="S108" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="T108" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="12:20" x14ac:dyDescent="0.45">
@@ -6048,25 +6294,25 @@
         <v>78</v>
       </c>
       <c r="M109" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N109" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O109" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q109" t="s">
         <v>78</v>
       </c>
       <c r="R109" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="S109" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="T109" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="12:20" x14ac:dyDescent="0.45">
@@ -6074,25 +6320,25 @@
         <v>78</v>
       </c>
       <c r="M110" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="N110" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="O110" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q110" t="s">
         <v>78</v>
       </c>
       <c r="R110" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="S110" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="T110" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="12:20" x14ac:dyDescent="0.45">
@@ -6100,25 +6346,25 @@
         <v>78</v>
       </c>
       <c r="M111" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N111" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O111" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q111" t="s">
         <v>78</v>
       </c>
       <c r="R111" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="S111" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="T111" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="112" spans="12:20" x14ac:dyDescent="0.45">
@@ -6126,25 +6372,25 @@
         <v>78</v>
       </c>
       <c r="M112" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N112" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O112" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q112" t="s">
         <v>78</v>
       </c>
       <c r="R112" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="S112" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="T112" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" spans="12:20" x14ac:dyDescent="0.45">
@@ -6152,25 +6398,25 @@
         <v>78</v>
       </c>
       <c r="M113" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N113" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O113" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q113" t="s">
         <v>78</v>
       </c>
       <c r="R113" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="S113" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="T113" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="12:20" x14ac:dyDescent="0.45">
@@ -6178,25 +6424,25 @@
         <v>78</v>
       </c>
       <c r="M114" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N114" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O114" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q114" t="s">
         <v>78</v>
       </c>
       <c r="R114" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="S114" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="T114" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="12:20" x14ac:dyDescent="0.45">
@@ -6204,25 +6450,25 @@
         <v>78</v>
       </c>
       <c r="M115" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N115" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="O115" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q115" t="s">
         <v>78</v>
       </c>
       <c r="R115" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="S115" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="T115" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="116" spans="12:20" x14ac:dyDescent="0.45">
@@ -6230,25 +6476,25 @@
         <v>78</v>
       </c>
       <c r="M116" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N116" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O116" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q116" t="s">
         <v>78</v>
       </c>
       <c r="R116" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="S116" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="T116" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="12:20" x14ac:dyDescent="0.45">
@@ -6256,25 +6502,25 @@
         <v>78</v>
       </c>
       <c r="M117" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N117" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O117" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q117" t="s">
         <v>78</v>
       </c>
       <c r="R117" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="S117" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="T117" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="118" spans="12:20" x14ac:dyDescent="0.45">
@@ -6282,25 +6528,25 @@
         <v>78</v>
       </c>
       <c r="M118" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N118" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O118" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q118" t="s">
         <v>78</v>
       </c>
       <c r="R118" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="S118" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="T118" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119" spans="12:20" x14ac:dyDescent="0.45">
@@ -6308,25 +6554,25 @@
         <v>78</v>
       </c>
       <c r="M119" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N119" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O119" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q119" t="s">
         <v>78</v>
       </c>
       <c r="R119" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="S119" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="T119" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="12:20" x14ac:dyDescent="0.45">
@@ -6334,25 +6580,25 @@
         <v>78</v>
       </c>
       <c r="M120" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N120" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O120" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q120" t="s">
         <v>78</v>
       </c>
       <c r="R120" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="S120" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="T120" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="12:20" x14ac:dyDescent="0.45">
@@ -6360,25 +6606,25 @@
         <v>78</v>
       </c>
       <c r="M121" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="N121" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O121" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q121" t="s">
         <v>78</v>
       </c>
       <c r="R121" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="S121" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="T121" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="12:20" x14ac:dyDescent="0.45">
@@ -6386,25 +6632,25 @@
         <v>78</v>
       </c>
       <c r="M122" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N122" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O122" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q122" t="s">
         <v>78</v>
       </c>
       <c r="R122" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="S122" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="T122" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="12:20" x14ac:dyDescent="0.45">
@@ -6412,25 +6658,25 @@
         <v>78</v>
       </c>
       <c r="M123" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="N123" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="O123" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q123" t="s">
         <v>78</v>
       </c>
       <c r="R123" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="S123" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="T123" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="12:20" x14ac:dyDescent="0.45">
@@ -6438,25 +6684,25 @@
         <v>78</v>
       </c>
       <c r="M124" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="N124" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="O124" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q124" t="s">
         <v>78</v>
       </c>
       <c r="R124" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="S124" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="T124" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" spans="12:20" x14ac:dyDescent="0.45">
@@ -6464,25 +6710,25 @@
         <v>78</v>
       </c>
       <c r="M125" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="N125" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="O125" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q125" t="s">
         <v>78</v>
       </c>
       <c r="R125" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="S125" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="T125" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="126" spans="12:20" x14ac:dyDescent="0.45">
@@ -6490,25 +6736,25 @@
         <v>78</v>
       </c>
       <c r="M126" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="N126" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="O126" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q126" t="s">
         <v>78</v>
       </c>
       <c r="R126" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="S126" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="T126" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="12:20" x14ac:dyDescent="0.45">
@@ -6516,25 +6762,25 @@
         <v>78</v>
       </c>
       <c r="M127" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="N127" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="O127" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q127" t="s">
         <v>78</v>
       </c>
       <c r="R127" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="S127" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="T127" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128" spans="12:20" x14ac:dyDescent="0.45">
@@ -6542,25 +6788,25 @@
         <v>78</v>
       </c>
       <c r="M128" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="N128" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="O128" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q128" t="s">
         <v>78</v>
       </c>
       <c r="R128" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="S128" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="T128" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="129" spans="12:20" x14ac:dyDescent="0.45">
@@ -6568,25 +6814,25 @@
         <v>78</v>
       </c>
       <c r="M129" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="N129" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="O129" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q129" t="s">
         <v>78</v>
       </c>
       <c r="R129" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="S129" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="T129" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="130" spans="12:20" x14ac:dyDescent="0.45">
@@ -6594,25 +6840,25 @@
         <v>78</v>
       </c>
       <c r="M130" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="N130" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="O130" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q130" t="s">
         <v>78</v>
       </c>
       <c r="R130" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="S130" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="T130" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="131" spans="12:20" x14ac:dyDescent="0.45">
@@ -6620,25 +6866,25 @@
         <v>78</v>
       </c>
       <c r="M131" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="N131" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="O131" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q131" t="s">
         <v>78</v>
       </c>
       <c r="R131" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="S131" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="T131" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="132" spans="12:20" x14ac:dyDescent="0.45">
@@ -6646,165 +6892,285 @@
         <v>78</v>
       </c>
       <c r="M132" t="s">
+        <v>311</v>
+      </c>
+      <c r="N132" t="s">
+        <v>312</v>
+      </c>
+      <c r="O132" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>78</v>
+      </c>
+      <c r="R132" t="s">
+        <v>102</v>
+      </c>
+      <c r="S132" t="s">
+        <v>103</v>
+      </c>
+      <c r="T132" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L133" t="s">
+        <v>78</v>
+      </c>
+      <c r="M133" t="s">
+        <v>313</v>
+      </c>
+      <c r="N133" t="s">
+        <v>314</v>
+      </c>
+      <c r="O133" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>78</v>
+      </c>
+      <c r="R133" t="s">
+        <v>545</v>
+      </c>
+      <c r="S133" t="s">
+        <v>546</v>
+      </c>
+      <c r="T133" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="134" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L134" t="s">
+        <v>78</v>
+      </c>
+      <c r="M134" t="s">
+        <v>315</v>
+      </c>
+      <c r="N134" t="s">
+        <v>316</v>
+      </c>
+      <c r="O134" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>78</v>
+      </c>
+      <c r="R134" t="s">
+        <v>547</v>
+      </c>
+      <c r="S134" t="s">
+        <v>548</v>
+      </c>
+      <c r="T134" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="135" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L135" t="s">
+        <v>78</v>
+      </c>
+      <c r="M135" t="s">
+        <v>317</v>
+      </c>
+      <c r="N135" t="s">
+        <v>318</v>
+      </c>
+      <c r="O135" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>78</v>
+      </c>
+      <c r="R135" t="s">
+        <v>549</v>
+      </c>
+      <c r="S135" t="s">
+        <v>550</v>
+      </c>
+      <c r="T135" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="136" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L136" t="s">
+        <v>78</v>
+      </c>
+      <c r="M136" t="s">
+        <v>319</v>
+      </c>
+      <c r="N136" t="s">
+        <v>320</v>
+      </c>
+      <c r="O136" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>78</v>
+      </c>
+      <c r="R136" t="s">
+        <v>551</v>
+      </c>
+      <c r="S136" t="s">
+        <v>552</v>
+      </c>
+      <c r="T136" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="137" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L137" t="s">
+        <v>78</v>
+      </c>
+      <c r="M137" t="s">
+        <v>321</v>
+      </c>
+      <c r="N137" t="s">
+        <v>322</v>
+      </c>
+      <c r="O137" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>78</v>
+      </c>
+      <c r="R137" t="s">
+        <v>553</v>
+      </c>
+      <c r="S137" t="s">
+        <v>554</v>
+      </c>
+      <c r="T137" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="138" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L138" t="s">
+        <v>78</v>
+      </c>
+      <c r="M138" t="s">
+        <v>323</v>
+      </c>
+      <c r="N138" t="s">
         <v>324</v>
       </c>
-      <c r="N132" t="s">
+      <c r="O138" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>78</v>
+      </c>
+      <c r="R138" t="s">
+        <v>555</v>
+      </c>
+      <c r="S138" t="s">
+        <v>556</v>
+      </c>
+      <c r="T138" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="139" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L139" t="s">
+        <v>78</v>
+      </c>
+      <c r="M139" t="s">
         <v>325</v>
       </c>
-      <c r="O132" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>78</v>
-      </c>
-      <c r="R132" t="s">
-        <v>108</v>
-      </c>
-      <c r="S132" t="s">
-        <v>109</v>
-      </c>
-      <c r="T132" t="s">
+      <c r="N139" t="s">
+        <v>326</v>
+      </c>
+      <c r="O139" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>78</v>
+      </c>
+      <c r="R139" t="s">
+        <v>557</v>
+      </c>
+      <c r="S139" t="s">
+        <v>558</v>
+      </c>
+      <c r="T139" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="140" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L140" t="s">
+        <v>78</v>
+      </c>
+      <c r="M140" t="s">
+        <v>327</v>
+      </c>
+      <c r="N140" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="133" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="Q133" t="s">
-        <v>78</v>
-      </c>
-      <c r="R133" t="s">
-        <v>525</v>
-      </c>
-      <c r="S133" t="s">
-        <v>526</v>
-      </c>
-      <c r="T133" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="134" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="Q134" t="s">
-        <v>78</v>
-      </c>
-      <c r="R134" t="s">
-        <v>527</v>
-      </c>
-      <c r="S134" t="s">
-        <v>528</v>
-      </c>
-      <c r="T134" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="135" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="Q135" t="s">
-        <v>78</v>
-      </c>
-      <c r="R135" t="s">
-        <v>529</v>
-      </c>
-      <c r="S135" t="s">
-        <v>530</v>
-      </c>
-      <c r="T135" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="136" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="Q136" t="s">
-        <v>78</v>
-      </c>
-      <c r="R136" t="s">
-        <v>531</v>
-      </c>
-      <c r="S136" t="s">
-        <v>532</v>
-      </c>
-      <c r="T136" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="137" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="Q137" t="s">
-        <v>78</v>
-      </c>
-      <c r="R137" t="s">
-        <v>533</v>
-      </c>
-      <c r="S137" t="s">
-        <v>534</v>
-      </c>
-      <c r="T137" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="138" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="Q138" t="s">
-        <v>78</v>
-      </c>
-      <c r="R138" t="s">
-        <v>535</v>
-      </c>
-      <c r="S138" t="s">
-        <v>536</v>
-      </c>
-      <c r="T138" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="139" spans="12:20" x14ac:dyDescent="0.45">
-      <c r="Q139" t="s">
-        <v>78</v>
-      </c>
-      <c r="R139" t="s">
-        <v>537</v>
-      </c>
-      <c r="S139" t="s">
-        <v>538</v>
-      </c>
-      <c r="T139" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="140" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="O140" t="s">
+        <v>331</v>
+      </c>
       <c r="Q140" t="s">
         <v>78</v>
       </c>
       <c r="R140" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="S140" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="T140" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="141" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L141" t="s">
+        <v>78</v>
+      </c>
+      <c r="M141" t="s">
+        <v>342</v>
+      </c>
+      <c r="N141" t="s">
+        <v>343</v>
+      </c>
+      <c r="O141" t="s">
+        <v>331</v>
+      </c>
       <c r="Q141" t="s">
         <v>78</v>
       </c>
       <c r="R141" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="S141" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="T141" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="142" spans="12:20" x14ac:dyDescent="0.45">
+      <c r="L142" t="s">
+        <v>78</v>
+      </c>
+      <c r="M142" t="s">
+        <v>344</v>
+      </c>
+      <c r="N142" t="s">
+        <v>345</v>
+      </c>
+      <c r="O142" t="s">
+        <v>331</v>
+      </c>
       <c r="Q142" t="s">
         <v>78</v>
       </c>
       <c r="R142" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="S142" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="T142" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="143" spans="12:20" x14ac:dyDescent="0.45">
@@ -6812,13 +7178,13 @@
         <v>78</v>
       </c>
       <c r="R143" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="S143" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="T143" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="144" spans="12:20" x14ac:dyDescent="0.45">
@@ -6826,13 +7192,13 @@
         <v>78</v>
       </c>
       <c r="R144" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="S144" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="T144" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="145" spans="17:20" x14ac:dyDescent="0.45">
@@ -6840,13 +7206,13 @@
         <v>78</v>
       </c>
       <c r="R145" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="S145" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="T145" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="146" spans="17:20" x14ac:dyDescent="0.45">
@@ -6854,13 +7220,13 @@
         <v>78</v>
       </c>
       <c r="R146" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="S146" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="T146" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="147" spans="17:20" x14ac:dyDescent="0.45">
@@ -6868,13 +7234,13 @@
         <v>78</v>
       </c>
       <c r="R147" t="s">
-        <v>553</v>
+        <v>194</v>
       </c>
       <c r="S147" t="s">
-        <v>554</v>
+        <v>195</v>
       </c>
       <c r="T147" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="148" spans="17:20" x14ac:dyDescent="0.45">
@@ -6882,13 +7248,13 @@
         <v>78</v>
       </c>
       <c r="R148" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="S148" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="T148" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="149" spans="17:20" x14ac:dyDescent="0.45">
@@ -6896,13 +7262,13 @@
         <v>78</v>
       </c>
       <c r="R149" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="S149" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="T149" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="150" spans="17:20" x14ac:dyDescent="0.45">
@@ -6910,13 +7276,13 @@
         <v>78</v>
       </c>
       <c r="R150" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="S150" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="T150" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="17:20" x14ac:dyDescent="0.45">
@@ -6924,13 +7290,13 @@
         <v>78</v>
       </c>
       <c r="R151" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="S151" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="T151" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="152" spans="17:20" x14ac:dyDescent="0.45">
@@ -6938,13 +7304,13 @@
         <v>78</v>
       </c>
       <c r="R152" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="S152" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="T152" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="153" spans="17:20" x14ac:dyDescent="0.45">
@@ -6952,13 +7318,13 @@
         <v>78</v>
       </c>
       <c r="R153" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="S153" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="T153" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="154" spans="17:20" x14ac:dyDescent="0.45">
@@ -6966,13 +7332,13 @@
         <v>78</v>
       </c>
       <c r="R154" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="S154" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="T154" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="155" spans="17:20" x14ac:dyDescent="0.45">
@@ -6980,13 +7346,13 @@
         <v>78</v>
       </c>
       <c r="R155" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="S155" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="T155" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="156" spans="17:20" x14ac:dyDescent="0.45">
@@ -6994,13 +7360,13 @@
         <v>78</v>
       </c>
       <c r="R156" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="S156" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="T156" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="157" spans="17:20" x14ac:dyDescent="0.45">
@@ -7008,13 +7374,13 @@
         <v>78</v>
       </c>
       <c r="R157" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="S157" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="T157" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="158" spans="17:20" x14ac:dyDescent="0.45">
@@ -7022,13 +7388,13 @@
         <v>78</v>
       </c>
       <c r="R158" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="S158" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="T158" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="159" spans="17:20" x14ac:dyDescent="0.45">
@@ -7036,13 +7402,13 @@
         <v>78</v>
       </c>
       <c r="R159" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="S159" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="T159" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9506BD-FBB0-4C53-9D1E-31203D2BA308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7363261A-32B1-49B6-9969-043F8D0F7B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7363261A-32B1-49B6-9969-043F8D0F7B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D87B202B-8A7C-426E-AC49-FB7E0D2FF271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D87B202B-8A7C-426E-AC49-FB7E0D2FF271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13F14215-0D61-467D-BDCA-8FBB19DDFFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13F14215-0D61-467D-BDCA-8FBB19DDFFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0FE9AC6-6116-418D-9A3B-A456D49832F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0FE9AC6-6116-418D-9A3B-A456D49832F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D77CF15-13E1-48E5-A0C4-C589A60B38E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D77CF15-13E1-48E5-A0C4-C589A60B38E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4747FA9E-389A-45D6-A7AB-580F9F59D2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4747FA9E-389A-45D6-A7AB-580F9F59D2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DFB5073-72A2-48E6-9A65-9056CE16E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_ITA_grids/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DFB5073-72A2-48E6-9A65-9056CE16E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD19746-51F3-42ED-B011-FA174DDE971D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
